--- a/Table S3.xlsx
+++ b/Table S3.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\paper document\Paper doucument finalfinal\Supplementary materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2021paperVersion3.1\附件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52FB7F8-9BAB-4E5A-AE8A-FAC8A9C7079D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E10775-1DE2-4982-A855-BFE78A32A0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$AG$365</definedName>
+  </definedNames>
   <calcPr calcId="181029" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -404,10 +407,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -495,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -555,6 +559,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,7 +847,7 @@
   <dimension ref="A1:AG365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1023,11 +1030,11 @@
         <v>1172.7696838306351</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="8">
-        <v>3.6828858020210689</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1177.676918057713</v>
+      <c r="I8" s="21">
+        <v>3.0679614946260365</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1157.6295158789139</v>
       </c>
       <c r="L8" s="9">
         <v>49.98</v>
@@ -1113,11 +1120,11 @@
         <v>1180.6236547289623</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="8">
-        <v>3.9374299003573512</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1185.9094050134297</v>
+      <c r="I9" s="21">
+        <v>3.2147252681928684</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1164.7364994234385</v>
       </c>
       <c r="L9" s="9">
         <v>49.98</v>
@@ -1203,11 +1210,11 @@
         <v>36</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="8">
-        <v>3.5514197199615758</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1186.9751583885584</v>
+      <c r="I10" s="21">
+        <v>3.234533951506247</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1167.1450561469671</v>
       </c>
       <c r="L10" s="9">
         <v>49.98</v>
@@ -1293,11 +1300,11 @@
         <v>1170.4352775044654</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="8">
-        <v>3.3279487815671516</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1177.6660179416658</v>
+      <c r="I11" s="21">
+        <v>2.6366565344292532</v>
+      </c>
+      <c r="J11" s="21">
+        <v>1156.1145201333486</v>
       </c>
       <c r="L11" s="9">
         <v>49.98</v>
@@ -1383,11 +1390,11 @@
         <v>1164.4916334690652</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="8">
-        <v>2.6930682504021313</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1181.6415435757808</v>
+      <c r="I12" s="21">
+        <v>2.1786797140599496</v>
+      </c>
+      <c r="J12" s="21">
+        <v>1159.9119376118761</v>
       </c>
       <c r="L12" s="9">
         <v>49.98</v>
@@ -1473,11 +1480,11 @@
         <v>1175.9778108977616</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="8">
-        <v>3.6307215344333592</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1177.7945370256173</v>
+      <c r="I13" s="21">
+        <v>2.8955515570657546</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1155.889754866336</v>
       </c>
       <c r="L13" s="9">
         <v>49.98</v>
@@ -1563,11 +1570,11 @@
         <v>1168.3693670337357</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="8">
-        <v>3.0985279663050136</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1161.4671552290692</v>
+      <c r="I14" s="21">
+        <v>2.2041354811463556</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1142.4660763831741</v>
       </c>
       <c r="L14" s="9">
         <v>49.98</v>
@@ -1653,11 +1660,11 @@
         <v>1170.6143768871821</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="8">
-        <v>3.3193227595100261</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1185.464751662731</v>
+      <c r="I15" s="21">
+        <v>2.5635907451489643</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1162.0289807222059</v>
       </c>
       <c r="L15" s="9">
         <v>49.98</v>
@@ -1743,11 +1750,11 @@
         <v>1170.3479846538899</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="8">
-        <v>3.3186252376473711</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1192.4816654823019</v>
+      <c r="I16" s="21">
+        <v>3.0036855718083721</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1172.4158922327872</v>
       </c>
       <c r="L16" s="9">
         <v>49.98</v>
@@ -1833,11 +1840,11 @@
         <v>1170.3517697690545</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="8">
-        <v>3.216701126928406</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1169.088214084903</v>
+      <c r="I17" s="21">
+        <v>2.2391567483746506</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1147.9974881634801</v>
       </c>
       <c r="L17" s="9">
         <v>49.98</v>
@@ -1923,11 +1930,11 @@
         <v>36</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="8">
-        <v>3.9114829624817098</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1191.1647381374939</v>
+      <c r="I18" s="21">
+        <v>3.2528878738481275</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1171.7297585058611</v>
       </c>
       <c r="L18" s="9">
         <v>49.98</v>
@@ -2013,11 +2020,11 @@
         <v>1179.1203834477742</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="8">
-        <v>3.8892485854231964</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1185.4156005591628</v>
+      <c r="I19" s="21">
+        <v>3.3422559024810319</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1163.6390446139146</v>
       </c>
       <c r="L19" s="9">
         <v>49.98</v>
@@ -2103,11 +2110,11 @@
         <v>1179.3921514080948</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="8">
-        <v>3.8865299144357337</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1177.622916538209</v>
+      <c r="I20" s="21">
+        <v>3.1460688988691068</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1157.9752728148098</v>
       </c>
       <c r="L20" s="9">
         <v>49.98</v>
@@ -2193,11 +2200,11 @@
         <v>1172.4387407905097</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="8">
-        <v>3.6593630682899096</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1187.8526532873016</v>
+      <c r="I21" s="21">
+        <v>3.2040297772671273</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1167.98659832921</v>
       </c>
       <c r="L21" s="9">
         <v>49.98</v>
@@ -2283,11 +2290,11 @@
         <v>1179.5747559050392</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="8">
-        <v>4.0805531722295392</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1172.6529131925827</v>
+      <c r="I22" s="21">
+        <v>3.2143893550876292</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1153.3465928373043</v>
       </c>
       <c r="L22" s="9">
         <v>49.98</v>
@@ -2373,11 +2380,11 @@
         <v>1163.4471564746154</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="8">
-        <v>3.0561392465560999</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1180.5770389283487</v>
+      <c r="I23" s="21">
+        <v>2.40983684129856</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1159.3565705345229</v>
       </c>
       <c r="L23" s="9">
         <v>49.98</v>
@@ -2463,11 +2470,11 @@
         <v>1159.7563147519277</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="8">
-        <v>2.4339611689427656</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1177.5893400268126</v>
+      <c r="I24" s="21">
+        <v>1.785620763901246</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1155.3226449026715</v>
       </c>
       <c r="L24" s="9">
         <v>49.98</v>
@@ -2553,11 +2560,11 @@
         <v>1185.4567135379407</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="8">
-        <v>4.1778592073272556</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1170.9895806551303</v>
+      <c r="I25" s="21">
+        <v>3.2476079132727733</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1149.8141510279784</v>
       </c>
       <c r="L25" s="9">
         <v>49.98</v>
@@ -2643,11 +2650,11 @@
         <v>36</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="8">
-        <v>2.1147234561209025</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1178.7743337480638</v>
+      <c r="I26" s="21">
+        <v>1.3688800547716582</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1155.2390270648202</v>
       </c>
       <c r="L26" s="9">
         <v>49.98</v>
@@ -2733,11 +2740,11 @@
         <v>1178.3362478932659</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="8">
-        <v>3.9849484665505202</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1188.1544671390945</v>
+      <c r="I27" s="21">
+        <v>3.4688475433783772</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1165.6848245413926</v>
       </c>
       <c r="L27" s="9">
         <v>49.98</v>
@@ -2823,11 +2830,11 @@
         <v>1165.3301024384082</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="I28" s="8">
-        <v>3.0030844451178709</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1174.9238607001989</v>
+      <c r="I28" s="21">
+        <v>2.4482012369856712</v>
+      </c>
+      <c r="J28" s="21">
+        <v>1156.3188726492767</v>
       </c>
       <c r="L28" s="9">
         <v>49.98</v>
@@ -2913,11 +2920,11 @@
         <v>1178.2484036777141</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="I29" s="8">
-        <v>2.6799636042862609</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1160.5963848288704</v>
+      <c r="I29" s="21">
+        <v>1.3804205822936062</v>
+      </c>
+      <c r="J29" s="21">
+        <v>1137.0194811665197</v>
       </c>
       <c r="L29" s="9">
         <v>49.98</v>
@@ -3003,11 +3010,11 @@
         <v>36</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="I30" s="8">
-        <v>1.7415379390008638</v>
-      </c>
-      <c r="J30" s="8">
-        <v>1184.5361339023725</v>
+      <c r="I30" s="21">
+        <v>1.210168200382963</v>
+      </c>
+      <c r="J30" s="21">
+        <v>1162.3905791314176</v>
       </c>
       <c r="L30" s="9">
         <v>49.98</v>
@@ -3093,11 +3100,11 @@
         <v>1174.6975149681839</v>
       </c>
       <c r="H31" s="8"/>
-      <c r="I31" s="8">
-        <v>3.3993483470332251</v>
-      </c>
-      <c r="J31" s="8">
-        <v>1179.010651547205</v>
+      <c r="I31" s="21">
+        <v>2.6945742386537752</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1159.0298727707939</v>
       </c>
       <c r="L31" s="9">
         <v>49.98</v>
@@ -3183,11 +3190,11 @@
         <v>1174.3667334446723</v>
       </c>
       <c r="H32" s="8"/>
-      <c r="I32" s="8">
-        <v>3.650953868774323</v>
-      </c>
-      <c r="J32" s="8">
-        <v>1176.5614427866597</v>
+      <c r="I32" s="21">
+        <v>2.7234994156043228</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1154.5962003974944</v>
       </c>
       <c r="L32" s="9">
         <v>49.98</v>
@@ -3273,11 +3280,11 @@
         <v>1175.5497868858915</v>
       </c>
       <c r="H33" s="8"/>
-      <c r="I33" s="8">
-        <v>3.7377810540423724</v>
-      </c>
-      <c r="J33" s="8">
-        <v>1172.6366838186386</v>
+      <c r="I33" s="21">
+        <v>3.0487465090762882</v>
+      </c>
+      <c r="J33" s="21">
+        <v>1152.8105061590684</v>
       </c>
       <c r="L33" s="9">
         <v>49.98</v>
@@ -3363,11 +3370,11 @@
         <v>1171.5130544895933</v>
       </c>
       <c r="H34" s="8"/>
-      <c r="I34" s="8">
-        <v>3.2444939586404544</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1163.7435010527975</v>
+      <c r="I34" s="21">
+        <v>2.1381750465654363</v>
+      </c>
+      <c r="J34" s="21">
+        <v>1142.9171332604899</v>
       </c>
       <c r="L34" s="9">
         <v>49.98</v>
@@ -3453,11 +3460,11 @@
         <v>1158.8336324348943</v>
       </c>
       <c r="H35" s="8"/>
-      <c r="I35" s="8">
-        <v>2.7149888147308374</v>
-      </c>
-      <c r="J35" s="8">
-        <v>1174.5413434351824</v>
+      <c r="I35" s="21">
+        <v>1.9701923484143578</v>
+      </c>
+      <c r="J35" s="21">
+        <v>1153.4892212168477</v>
       </c>
       <c r="L35" s="9">
         <v>49.98</v>
@@ -3543,11 +3550,11 @@
         <v>36</v>
       </c>
       <c r="H36" s="8"/>
-      <c r="I36" s="8">
-        <v>5.0245124309176212</v>
-      </c>
-      <c r="J36" s="8">
-        <v>1199.2015952234726</v>
+      <c r="I36" s="21">
+        <v>4.8791821189666287</v>
+      </c>
+      <c r="J36" s="21">
+        <v>1179.7527936716217</v>
       </c>
       <c r="L36" s="9">
         <v>49.98</v>
@@ -3633,11 +3640,11 @@
         <v>1163.3802784239583</v>
       </c>
       <c r="H37" s="8"/>
-      <c r="I37" s="8">
-        <v>2.2996735612172117</v>
-      </c>
-      <c r="J37" s="8">
-        <v>1173.5540238140022</v>
+      <c r="I37" s="21">
+        <v>1.3059789375715454</v>
+      </c>
+      <c r="J37" s="21">
+        <v>1149.8109793925234</v>
       </c>
       <c r="L37" s="9">
         <v>49.98</v>
@@ -3723,11 +3730,11 @@
         <v>36</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="8">
-        <v>3.2016487616603868</v>
-      </c>
-      <c r="J38" s="8">
-        <v>1182.2439863766317</v>
+      <c r="I38" s="21">
+        <v>2.318113225332322</v>
+      </c>
+      <c r="J38" s="21">
+        <v>1158.6261904920905</v>
       </c>
       <c r="L38" s="9">
         <v>49.98</v>
@@ -3813,11 +3820,11 @@
         <v>1166.5340403757473</v>
       </c>
       <c r="H39" s="8"/>
-      <c r="I39" s="8">
-        <v>3.2558742571075001</v>
-      </c>
-      <c r="J39" s="8">
-        <v>1164.4825156379</v>
+      <c r="I39" s="21">
+        <v>2.1161513573784738</v>
+      </c>
+      <c r="J39" s="21">
+        <v>1142.8800662626911</v>
       </c>
       <c r="L39" s="9">
         <v>49.98</v>
@@ -3903,11 +3910,11 @@
         <v>36</v>
       </c>
       <c r="H40" s="8"/>
-      <c r="I40" s="8">
-        <v>3.6032544913850941</v>
-      </c>
-      <c r="J40" s="8">
-        <v>1185.3590687363908</v>
+      <c r="I40" s="21">
+        <v>3.5302236285066222</v>
+      </c>
+      <c r="J40" s="21">
+        <v>1166.9832940392389</v>
       </c>
       <c r="L40" s="9">
         <v>49.98</v>
@@ -3993,11 +4000,11 @@
         <v>1175.1921926600053</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="8">
-        <v>3.3158341244001264</v>
-      </c>
-      <c r="J41" s="8">
-        <v>1185.6953735832044</v>
+      <c r="I41" s="21">
+        <v>2.8537182166973487</v>
+      </c>
+      <c r="J41" s="21">
+        <v>1164.3202859792718</v>
       </c>
       <c r="L41" s="9">
         <v>49.98</v>
@@ -4083,11 +4090,11 @@
         <v>1180.1798540959621</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="8">
-        <v>3.8797627732283004</v>
-      </c>
-      <c r="J42" s="8">
-        <v>1183.6527882073403</v>
+      <c r="I42" s="21">
+        <v>3.3483000076720053</v>
+      </c>
+      <c r="J42" s="21">
+        <v>1164.4677974078186</v>
       </c>
       <c r="L42" s="9">
         <v>49.98</v>
@@ -4173,11 +4180,11 @@
         <v>1170.8510713673877</v>
       </c>
       <c r="H43" s="8"/>
-      <c r="I43" s="8">
-        <v>3.5677967705864972</v>
-      </c>
-      <c r="J43" s="8">
-        <v>1170.8265454297416</v>
+      <c r="I43" s="21">
+        <v>3.01326155215407</v>
+      </c>
+      <c r="J43" s="21">
+        <v>1150.8636204934178</v>
       </c>
       <c r="L43" s="9">
         <v>49.98</v>
@@ -4263,11 +4270,11 @@
         <v>1177.436489156561</v>
       </c>
       <c r="H44" s="8"/>
-      <c r="I44" s="8">
-        <v>3.7559832075349959</v>
-      </c>
-      <c r="J44" s="8">
-        <v>1179.438311477154</v>
+      <c r="I44" s="21">
+        <v>3.3480033031596541</v>
+      </c>
+      <c r="J44" s="21">
+        <v>1161.7858551947668</v>
       </c>
       <c r="L44" s="9">
         <v>49.98</v>
@@ -4353,11 +4360,11 @@
         <v>1165.8774069318251</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="I45" s="8">
-        <v>3.4834757003486203</v>
-      </c>
-      <c r="J45" s="8">
-        <v>1200.0814146695286</v>
+      <c r="I45" s="21">
+        <v>3.4678989255901236</v>
+      </c>
+      <c r="J45" s="21">
+        <v>1180.9564944073204</v>
       </c>
       <c r="L45" s="9">
         <v>49.98</v>
@@ -4443,11 +4450,11 @@
         <v>1159.2130835604808</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="8">
-        <v>3.282076678551725</v>
-      </c>
-      <c r="J46" s="8">
-        <v>1182.309863047604</v>
+      <c r="I46" s="21">
+        <v>2.9499894967499927</v>
+      </c>
+      <c r="J46" s="21">
+        <v>1162.2580318895227</v>
       </c>
       <c r="L46" s="9">
         <v>49.98</v>
@@ -4533,11 +4540,11 @@
         <v>36</v>
       </c>
       <c r="H47" s="8"/>
-      <c r="I47" s="8">
-        <v>3.7479135167483797</v>
-      </c>
-      <c r="J47" s="8">
-        <v>1195.2130948203924</v>
+      <c r="I47" s="21">
+        <v>3.8763324063383777</v>
+      </c>
+      <c r="J47" s="21">
+        <v>1177.1715360143194</v>
       </c>
       <c r="L47" s="9">
         <v>49.98</v>
@@ -4623,11 +4630,11 @@
         <v>1164.2247865859699</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48" s="8">
-        <v>2.8806729950623051</v>
-      </c>
-      <c r="J48" s="8">
-        <v>1182.283176986781</v>
+      <c r="I48" s="21">
+        <v>2.5812030861911452</v>
+      </c>
+      <c r="J48" s="21">
+        <v>1164.4374202064664</v>
       </c>
       <c r="L48" s="9">
         <v>49.98</v>
@@ -4713,11 +4720,11 @@
         <v>1172.3284005342052</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49" s="8">
-        <v>3.7462656125982434</v>
-      </c>
-      <c r="J49" s="8">
-        <v>1190.0987771688224</v>
+      <c r="I49" s="21">
+        <v>3.5826580149109404</v>
+      </c>
+      <c r="J49" s="21">
+        <v>1170.8655440953362</v>
       </c>
       <c r="L49" s="9">
         <v>49.98</v>
@@ -4803,11 +4810,11 @@
         <v>36</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50" s="8">
-        <v>4.8088509721803376</v>
-      </c>
-      <c r="J50" s="8">
-        <v>1162.0093714702489</v>
+      <c r="I50" s="21">
+        <v>4.8535857946510497</v>
+      </c>
+      <c r="J50" s="21">
+        <v>1145.8430286814053</v>
       </c>
       <c r="L50" s="9">
         <v>50.36</v>
@@ -4893,11 +4900,11 @@
         <v>36</v>
       </c>
       <c r="H51" s="8"/>
-      <c r="I51" s="8">
-        <v>6.2808667210296463</v>
-      </c>
-      <c r="J51" s="8">
-        <v>1181.3833380783274</v>
+      <c r="I51" s="21">
+        <v>6.9267494396277947</v>
+      </c>
+      <c r="J51" s="21">
+        <v>1166.3706958006755</v>
       </c>
       <c r="L51" s="9">
         <v>50.36</v>
@@ -4983,11 +4990,11 @@
         <v>36</v>
       </c>
       <c r="H52" s="8"/>
-      <c r="I52" s="8">
-        <v>4.8473544656199827</v>
-      </c>
-      <c r="J52" s="8">
-        <v>1152.9968669094619</v>
+      <c r="I52" s="21">
+        <v>4.4590207870299459</v>
+      </c>
+      <c r="J52" s="21">
+        <v>1136.6645831042829</v>
       </c>
       <c r="L52" s="9">
         <v>50.36</v>
@@ -5073,11 +5080,11 @@
         <v>36</v>
       </c>
       <c r="H53" s="8"/>
-      <c r="I53" s="8">
-        <v>6.3132533799174411</v>
-      </c>
-      <c r="J53" s="8">
-        <v>1176.2526980090861</v>
+      <c r="I53" s="21">
+        <v>6.2284279138876428</v>
+      </c>
+      <c r="J53" s="21">
+        <v>1159.3677424089894</v>
       </c>
       <c r="L53" s="9">
         <v>50.36</v>
@@ -5163,11 +5170,11 @@
         <v>36</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="8">
-        <v>5.3925061521939242</v>
-      </c>
-      <c r="J54" s="8">
-        <v>1157.2389901290899</v>
+      <c r="I54" s="21">
+        <v>5.1194332340330284</v>
+      </c>
+      <c r="J54" s="21">
+        <v>1141.1124541445972</v>
       </c>
       <c r="L54" s="9">
         <v>50.36</v>
@@ -5253,11 +5260,11 @@
         <v>36</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="8">
-        <v>5.1598735744383148</v>
-      </c>
-      <c r="J55" s="8">
-        <v>1174.3212714452004</v>
+      <c r="I55" s="21">
+        <v>5.0064369258697603</v>
+      </c>
+      <c r="J55" s="21">
+        <v>1155.0010375424167</v>
       </c>
       <c r="L55" s="9">
         <v>50.36</v>
@@ -5343,11 +5350,11 @@
         <v>36</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="8">
-        <v>5.792807459583365</v>
-      </c>
-      <c r="J56" s="8">
-        <v>1168.2672330402261</v>
+      <c r="I56" s="21">
+        <v>5.837143806053497</v>
+      </c>
+      <c r="J56" s="21">
+        <v>1152.3736700769573</v>
       </c>
       <c r="L56" s="9">
         <v>50.36</v>
@@ -5433,11 +5440,11 @@
         <v>36</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="8">
-        <v>5.0429051853615547</v>
-      </c>
-      <c r="J57" s="8">
-        <v>1158.6785981902681</v>
+      <c r="I57" s="21">
+        <v>4.7777790827489781</v>
+      </c>
+      <c r="J57" s="21">
+        <v>1141.3996963322993</v>
       </c>
       <c r="L57" s="9">
         <v>50.36</v>
@@ -5523,11 +5530,11 @@
         <v>36</v>
       </c>
       <c r="H58" s="8"/>
-      <c r="I58" s="8">
-        <v>5.6941400138585649</v>
-      </c>
-      <c r="J58" s="8">
-        <v>1154.808643057471</v>
+      <c r="I58" s="21">
+        <v>5.6166467887208817</v>
+      </c>
+      <c r="J58" s="21">
+        <v>1140.8379980728398</v>
       </c>
       <c r="L58" s="9">
         <v>50.36</v>
@@ -5613,11 +5620,11 @@
         <v>36</v>
       </c>
       <c r="H59" s="8"/>
-      <c r="I59" s="8">
-        <v>6.4707608924830495</v>
-      </c>
-      <c r="J59" s="8">
-        <v>1171.9631650561887</v>
+      <c r="I59" s="21">
+        <v>6.5472891601821601</v>
+      </c>
+      <c r="J59" s="21">
+        <v>1156.1869827571425</v>
       </c>
       <c r="L59" s="9">
         <v>50.36</v>
@@ -5703,11 +5710,11 @@
         <v>36</v>
       </c>
       <c r="H60" s="8"/>
-      <c r="I60" s="8">
-        <v>6.3998712619014348</v>
-      </c>
-      <c r="J60" s="8">
-        <v>1167.883686269085</v>
+      <c r="I60" s="21">
+        <v>6.4981493063744686</v>
+      </c>
+      <c r="J60" s="21">
+        <v>1152.4643476509875</v>
       </c>
       <c r="L60" s="9">
         <v>50.36</v>
@@ -5793,11 +5800,11 @@
         <v>36</v>
       </c>
       <c r="H61" s="8"/>
-      <c r="I61" s="8">
-        <v>5.5724958919509326</v>
-      </c>
-      <c r="J61" s="8">
-        <v>1163.3949695184724</v>
+      <c r="I61" s="21">
+        <v>5.1879758538255238</v>
+      </c>
+      <c r="J61" s="21">
+        <v>1146.7179052719898</v>
       </c>
       <c r="L61" s="9">
         <v>50.36</v>
@@ -5883,11 +5890,11 @@
         <v>36</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="8">
-        <v>4.9110136347772269</v>
-      </c>
-      <c r="J62" s="8">
-        <v>1163.0854870765461</v>
+      <c r="I62" s="21">
+        <v>4.7109341597474845</v>
+      </c>
+      <c r="J62" s="21">
+        <v>1146.1276730438105</v>
       </c>
       <c r="L62" s="9">
         <v>50.36</v>
@@ -5973,11 +5980,11 @@
         <v>36</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="8">
-        <v>5.9544404060063805</v>
-      </c>
-      <c r="J63" s="8">
-        <v>1157.7771427438099</v>
+      <c r="I63" s="21">
+        <v>5.7069395889481633</v>
+      </c>
+      <c r="J63" s="21">
+        <v>1143.9913225586506</v>
       </c>
       <c r="L63" s="9">
         <v>50.36</v>
@@ -6063,11 +6070,11 @@
         <v>36</v>
       </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="8">
-        <v>4.997236843326629</v>
-      </c>
-      <c r="J64" s="8">
-        <v>1162.3104123955047</v>
+      <c r="I64" s="21">
+        <v>4.7456783268321949</v>
+      </c>
+      <c r="J64" s="21">
+        <v>1145.1010792819504</v>
       </c>
       <c r="L64" s="9">
         <v>50.36</v>
@@ -6153,11 +6160,11 @@
         <v>36</v>
       </c>
       <c r="H65" s="8"/>
-      <c r="I65" s="8">
-        <v>6.1630401265165062</v>
-      </c>
-      <c r="J65" s="8">
-        <v>1159.58234156965</v>
+      <c r="I65" s="21">
+        <v>5.946081880034523</v>
+      </c>
+      <c r="J65" s="21">
+        <v>1146.673834147656</v>
       </c>
       <c r="L65" s="9">
         <v>50.36</v>
@@ -6243,11 +6250,11 @@
         <v>36</v>
       </c>
       <c r="H66" s="8"/>
-      <c r="I66" s="8">
-        <v>5.6646678300047917</v>
-      </c>
-      <c r="J66" s="8">
-        <v>1165.4123424524182</v>
+      <c r="I66" s="21">
+        <v>5.3843238787406058</v>
+      </c>
+      <c r="J66" s="21">
+        <v>1148.4218162557383</v>
       </c>
       <c r="L66" s="9">
         <v>50.36</v>
@@ -6333,11 +6340,11 @@
         <v>36</v>
       </c>
       <c r="H67" s="8"/>
-      <c r="I67" s="8">
-        <v>7.520643040211068</v>
-      </c>
-      <c r="J67" s="8">
-        <v>1183.0421247355328</v>
+      <c r="I67" s="21">
+        <v>7.9223203626699927</v>
+      </c>
+      <c r="J67" s="21">
+        <v>1167.1249363737006</v>
       </c>
       <c r="L67" s="9">
         <v>50.36</v>
@@ -6423,11 +6430,11 @@
         <v>36</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="8">
-        <v>5.2685124505905101</v>
-      </c>
-      <c r="J68" s="8">
-        <v>1158.4781427518772</v>
+      <c r="I68" s="21">
+        <v>4.8797654600308924</v>
+      </c>
+      <c r="J68" s="21">
+        <v>1140.557317867673</v>
       </c>
       <c r="L68" s="9">
         <v>50.36</v>
@@ -6513,11 +6520,11 @@
         <v>36</v>
       </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="8">
-        <v>4.7160795797995192</v>
-      </c>
-      <c r="J69" s="8">
-        <v>1153.8692453864703</v>
+      <c r="I69" s="21">
+        <v>4.3113996007453501</v>
+      </c>
+      <c r="J69" s="21">
+        <v>1136.1457708647574</v>
       </c>
       <c r="L69" s="9">
         <v>50.36</v>
@@ -6603,11 +6610,11 @@
         <v>36</v>
       </c>
       <c r="H70" s="8"/>
-      <c r="I70" s="8">
-        <v>5.7121388468315502</v>
-      </c>
-      <c r="J70" s="8">
-        <v>1162.8434211215963</v>
+      <c r="I70" s="21">
+        <v>5.5004859919376692</v>
+      </c>
+      <c r="J70" s="21">
+        <v>1146.0786512369471</v>
       </c>
       <c r="L70" s="9">
         <v>50.36</v>
@@ -6693,11 +6700,11 @@
         <v>36</v>
       </c>
       <c r="H71" s="8"/>
-      <c r="I71" s="8">
-        <v>5.4402530712867048</v>
-      </c>
-      <c r="J71" s="8">
-        <v>1161.8304416277599</v>
+      <c r="I71" s="21">
+        <v>5.2089922418479695</v>
+      </c>
+      <c r="J71" s="21">
+        <v>1145.5377256792585</v>
       </c>
       <c r="L71" s="9">
         <v>50.36</v>
@@ -6783,11 +6790,11 @@
         <v>36</v>
       </c>
       <c r="H72" s="8"/>
-      <c r="I72" s="8">
-        <v>5.2140434011651067</v>
-      </c>
-      <c r="J72" s="8">
-        <v>1170.3576036333218</v>
+      <c r="I72" s="21">
+        <v>5.0453342395227168</v>
+      </c>
+      <c r="J72" s="21">
+        <v>1151.0523417739912</v>
       </c>
       <c r="L72" s="9">
         <v>50.36</v>
@@ -6873,11 +6880,11 @@
         <v>36</v>
       </c>
       <c r="H73" s="8"/>
-      <c r="I73" s="8">
-        <v>4.8408384931378343</v>
-      </c>
-      <c r="J73" s="8">
-        <v>1159.5315933069658</v>
+      <c r="I73" s="21">
+        <v>4.3103440342968149</v>
+      </c>
+      <c r="J73" s="21">
+        <v>1139.9081205730531</v>
       </c>
       <c r="L73" s="9">
         <v>50.36</v>
@@ -6963,11 +6970,11 @@
         <v>36</v>
       </c>
       <c r="H74" s="8"/>
-      <c r="I74" s="8">
-        <v>6.3926026427701821</v>
-      </c>
-      <c r="J74" s="8">
-        <v>1174.4131550287298</v>
+      <c r="I74" s="21">
+        <v>6.4978857196095738</v>
+      </c>
+      <c r="J74" s="21">
+        <v>1158.1571191267915</v>
       </c>
       <c r="L74" s="9">
         <v>50.36</v>
@@ -7053,11 +7060,11 @@
         <v>36</v>
       </c>
       <c r="H75" s="8"/>
-      <c r="I75" s="8">
-        <v>6.8291332797281186</v>
-      </c>
-      <c r="J75" s="8">
-        <v>1175.2721388040488</v>
+      <c r="I75" s="21">
+        <v>6.9160176449298234</v>
+      </c>
+      <c r="J75" s="21">
+        <v>1158.0836560754174</v>
       </c>
       <c r="L75" s="9">
         <v>50.36</v>
@@ -7143,11 +7150,11 @@
         <v>36</v>
       </c>
       <c r="H76" s="8"/>
-      <c r="I76" s="8">
-        <v>5.1035473903407649</v>
-      </c>
-      <c r="J76" s="8">
-        <v>1178.8264828105675</v>
+      <c r="I76" s="21">
+        <v>4.4520871347867939</v>
+      </c>
+      <c r="J76" s="21">
+        <v>1157.1997492031596</v>
       </c>
       <c r="L76" s="9">
         <v>50.374655573075813</v>
@@ -7233,11 +7240,11 @@
         <v>36</v>
       </c>
       <c r="H77" s="8"/>
-      <c r="I77" s="8">
-        <v>5.2199960491043136</v>
-      </c>
-      <c r="J77" s="8">
-        <v>1169.9434443901282</v>
+      <c r="I77" s="21">
+        <v>4.4152183873020086</v>
+      </c>
+      <c r="J77" s="21">
+        <v>1150.1135281560958</v>
       </c>
       <c r="L77" s="9">
         <v>50.374655573075813</v>
@@ -7323,11 +7330,11 @@
         <v>36</v>
       </c>
       <c r="H78" s="8"/>
-      <c r="I78" s="8">
-        <v>4.9443863336225746</v>
-      </c>
-      <c r="J78" s="8">
-        <v>1185.1366785298856</v>
+      <c r="I78" s="21">
+        <v>4.5474952695917317</v>
+      </c>
+      <c r="J78" s="21">
+        <v>1164.167515443439</v>
       </c>
       <c r="L78" s="9">
         <v>50.374655573075799</v>
@@ -7413,11 +7420,11 @@
         <v>36</v>
       </c>
       <c r="H79" s="8"/>
-      <c r="I79" s="8">
-        <v>5.0878639825110277</v>
-      </c>
-      <c r="J79" s="8">
-        <v>1172.9974292144598</v>
+      <c r="I79" s="21">
+        <v>4.5219507608044758</v>
+      </c>
+      <c r="J79" s="21">
+        <v>1154.0275129318122</v>
       </c>
       <c r="L79" s="9">
         <v>50.374655573075799</v>
@@ -7503,11 +7510,11 @@
         <v>36</v>
       </c>
       <c r="H80" s="8"/>
-      <c r="I80" s="8">
-        <v>4.5427797843106497</v>
-      </c>
-      <c r="J80" s="8">
-        <v>1175.5131890306657</v>
+      <c r="I80" s="21">
+        <v>4.0356747035125586</v>
+      </c>
+      <c r="J80" s="21">
+        <v>1155.8624731508717</v>
       </c>
       <c r="L80" s="9">
         <v>50.374655573075799</v>
@@ -7593,11 +7600,11 @@
         <v>36</v>
       </c>
       <c r="H81" s="8"/>
-      <c r="I81" s="8">
-        <v>5.0198663240683388</v>
-      </c>
-      <c r="J81" s="8">
-        <v>1188.6829135756234</v>
+      <c r="I81" s="21">
+        <v>4.4501701882821827</v>
+      </c>
+      <c r="J81" s="21">
+        <v>1166.3753072097531</v>
       </c>
       <c r="L81" s="9">
         <v>50.374655573075799</v>
@@ -7683,11 +7690,11 @@
         <v>36</v>
       </c>
       <c r="H82" s="8"/>
-      <c r="I82" s="8">
-        <v>5.0710507760670609</v>
-      </c>
-      <c r="J82" s="8">
-        <v>1185.3812436440867</v>
+      <c r="I82" s="21">
+        <v>4.6275959928092831</v>
+      </c>
+      <c r="J82" s="21">
+        <v>1164.1543434774487</v>
       </c>
       <c r="L82" s="9">
         <v>50.374655573075799</v>
@@ -7773,11 +7780,11 @@
         <v>36</v>
       </c>
       <c r="H83" s="8"/>
-      <c r="I83" s="8">
-        <v>4.9276006514055837</v>
-      </c>
-      <c r="J83" s="8">
-        <v>1158.1162567130275</v>
+      <c r="I83" s="21">
+        <v>4.1471069711964894</v>
+      </c>
+      <c r="J83" s="21">
+        <v>1139.6776181033733</v>
       </c>
       <c r="L83" s="9">
         <v>50.374655573075799</v>
@@ -7863,11 +7870,11 @@
         <v>1186.6070558882816</v>
       </c>
       <c r="H84" s="8"/>
-      <c r="I84" s="8">
-        <v>5.0721816097394985</v>
-      </c>
-      <c r="J84" s="8">
-        <v>1181.5749665707656</v>
+      <c r="I84" s="21">
+        <v>4.422251664155219</v>
+      </c>
+      <c r="J84" s="21">
+        <v>1161.6914836337794</v>
       </c>
       <c r="L84" s="9">
         <v>50.374655573075799</v>
@@ -7953,11 +7960,11 @@
         <v>36</v>
       </c>
       <c r="H85" s="8"/>
-      <c r="I85" s="8">
-        <v>4.4360530136600715</v>
-      </c>
-      <c r="J85" s="8">
-        <v>1175.6425367308859</v>
+      <c r="I85" s="21">
+        <v>4.0005157522140529</v>
+      </c>
+      <c r="J85" s="21">
+        <v>1155.19238957778</v>
       </c>
       <c r="L85" s="9">
         <v>50.374655573075799</v>
@@ -8043,11 +8050,11 @@
         <v>36</v>
       </c>
       <c r="H86" s="8"/>
-      <c r="I86" s="8">
-        <v>4.7936779842590092</v>
-      </c>
-      <c r="J86" s="8">
-        <v>1182.4857995149173</v>
+      <c r="I86" s="21">
+        <v>4.7601909202866004</v>
+      </c>
+      <c r="J86" s="21">
+        <v>1164.089752664845</v>
       </c>
       <c r="L86" s="9">
         <v>50.374655573075799</v>
@@ -8133,11 +8140,11 @@
         <v>36</v>
       </c>
       <c r="H87" s="8"/>
-      <c r="I87" s="8">
-        <v>4.6714201959584329</v>
-      </c>
-      <c r="J87" s="8">
-        <v>1187.5660256787421</v>
+      <c r="I87" s="21">
+        <v>4.7748100374262066</v>
+      </c>
+      <c r="J87" s="21">
+        <v>1168.5654376840484</v>
       </c>
       <c r="L87" s="9">
         <v>50.374655573075799</v>
@@ -8223,11 +8230,11 @@
         <v>36</v>
       </c>
       <c r="H88" s="8"/>
-      <c r="I88" s="8">
-        <v>4.3408942053166086</v>
-      </c>
-      <c r="J88" s="8">
-        <v>1192.6869439319207</v>
+      <c r="I88" s="21">
+        <v>4.2393858979566126</v>
+      </c>
+      <c r="J88" s="21">
+        <v>1173.5373439600457</v>
       </c>
       <c r="L88" s="9">
         <v>50.374655573075799</v>
@@ -8313,11 +8320,11 @@
         <v>36</v>
       </c>
       <c r="H89" s="8"/>
-      <c r="I89" s="8">
-        <v>6.1146048282410526</v>
-      </c>
-      <c r="J89" s="8">
-        <v>1200.1063838656592</v>
+      <c r="I89" s="21">
+        <v>6.9812675939717224</v>
+      </c>
+      <c r="J89" s="21">
+        <v>1185.3474634439926</v>
       </c>
       <c r="L89" s="9">
         <v>50.374655573075799</v>
@@ -8403,11 +8410,11 @@
         <v>36</v>
       </c>
       <c r="H90" s="8"/>
-      <c r="I90" s="8">
-        <v>6.7784476621887038</v>
-      </c>
-      <c r="J90" s="8">
-        <v>1195.2537953310457</v>
+      <c r="I90" s="21">
+        <v>7.3501971837634237</v>
+      </c>
+      <c r="J90" s="21">
+        <v>1179.1181679363754</v>
       </c>
       <c r="L90" s="9">
         <v>50.374655573075799</v>
@@ -8493,11 +8500,11 @@
         <v>36</v>
       </c>
       <c r="H91" s="8"/>
-      <c r="I91" s="8">
-        <v>4.6479893571212969</v>
-      </c>
-      <c r="J91" s="8">
-        <v>1191.0398939347076</v>
+      <c r="I91" s="21">
+        <v>4.5289733392380853</v>
+      </c>
+      <c r="J91" s="21">
+        <v>1171.7196187279478</v>
       </c>
       <c r="L91" s="9">
         <v>50.374655573075799</v>
@@ -8583,11 +8590,11 @@
         <v>36</v>
       </c>
       <c r="H92" s="8"/>
-      <c r="I92" s="8">
-        <v>5.3675430856766333</v>
-      </c>
-      <c r="J92" s="8">
-        <v>1184.2604318221056</v>
+      <c r="I92" s="21">
+        <v>5.5400093342976682</v>
+      </c>
+      <c r="J92" s="21">
+        <v>1166.6839165987035</v>
       </c>
       <c r="L92" s="9">
         <v>50.374655573075799</v>
@@ -8673,11 +8680,11 @@
         <v>36</v>
       </c>
       <c r="H93" s="8"/>
-      <c r="I93" s="8">
-        <v>5.0498215559771644</v>
-      </c>
-      <c r="J93" s="8">
-        <v>1175.3386162503259</v>
+      <c r="I93" s="21">
+        <v>4.8281514241461849</v>
+      </c>
+      <c r="J93" s="21">
+        <v>1157.1833624077185</v>
       </c>
       <c r="L93" s="9">
         <v>50.374655573075799</v>
@@ -8763,11 +8770,11 @@
         <v>36</v>
       </c>
       <c r="H94" s="8"/>
-      <c r="I94" s="8">
-        <v>4.6022630914794753</v>
-      </c>
-      <c r="J94" s="8">
-        <v>1176.3066279853319</v>
+      <c r="I94" s="21">
+        <v>4.4778775057564602</v>
+      </c>
+      <c r="J94" s="21">
+        <v>1157.6388266107169</v>
       </c>
       <c r="L94" s="9">
         <v>50.374655573075799</v>
@@ -8853,11 +8860,11 @@
         <v>36</v>
       </c>
       <c r="H95" s="8"/>
-      <c r="I95" s="8">
-        <v>4.7775656767770407</v>
-      </c>
-      <c r="J95" s="8">
-        <v>1182.1843482920883</v>
+      <c r="I95" s="21">
+        <v>4.5313101831812475</v>
+      </c>
+      <c r="J95" s="21">
+        <v>1162.8538628770445</v>
       </c>
       <c r="L95" s="9">
         <v>50.374655573075799</v>
@@ -8943,11 +8950,11 @@
         <v>36</v>
       </c>
       <c r="H96" s="8"/>
-      <c r="I96" s="8">
-        <v>4.9119755082955265</v>
-      </c>
-      <c r="J96" s="8">
-        <v>1174.2354352350822</v>
+      <c r="I96" s="21">
+        <v>4.5607388258523578</v>
+      </c>
+      <c r="J96" s="21">
+        <v>1154.23747650061</v>
       </c>
       <c r="L96" s="9">
         <v>50.374655573075799</v>
@@ -9033,11 +9040,11 @@
         <v>36</v>
       </c>
       <c r="H97" s="8"/>
-      <c r="I97" s="8">
-        <v>5.0477260183798158</v>
-      </c>
-      <c r="J97" s="8">
-        <v>1183.727640298579</v>
+      <c r="I97" s="21">
+        <v>4.6341455083834333</v>
+      </c>
+      <c r="J97" s="21">
+        <v>1163.4141538944257</v>
       </c>
       <c r="L97" s="9">
         <v>50.374655573075799</v>
@@ -9123,11 +9130,11 @@
         <v>36</v>
       </c>
       <c r="H98" s="8"/>
-      <c r="I98" s="8">
-        <v>4.9633664556138868</v>
-      </c>
-      <c r="J98" s="8">
-        <v>1174.1636125094401</v>
+      <c r="I98" s="21">
+        <v>4.4149904380894718</v>
+      </c>
+      <c r="J98" s="21">
+        <v>1153.7078638926234</v>
       </c>
       <c r="L98" s="9">
         <v>50.374655573075799</v>
@@ -9213,11 +9220,11 @@
         <v>36</v>
       </c>
       <c r="H99" s="8"/>
-      <c r="I99" s="8">
-        <v>3.996857419493459</v>
-      </c>
-      <c r="J99" s="8">
-        <v>1196.2660063120643</v>
+      <c r="I99" s="21">
+        <v>3.7361737973176403</v>
+      </c>
+      <c r="J99" s="21">
+        <v>1173.8096802415384</v>
       </c>
       <c r="L99" s="9">
         <v>50.374655573075799</v>
@@ -9303,11 +9310,11 @@
         <v>36</v>
       </c>
       <c r="H100" s="8"/>
-      <c r="I100" s="8">
-        <v>5.39530159839736</v>
-      </c>
-      <c r="J100" s="8">
-        <v>1171.1889282189413</v>
+      <c r="I100" s="21">
+        <v>5.1828177856619995</v>
+      </c>
+      <c r="J100" s="21">
+        <v>1153.1384057098776</v>
       </c>
       <c r="L100" s="9">
         <v>50.374655573075799</v>
@@ -9393,11 +9400,11 @@
         <v>36</v>
       </c>
       <c r="H101" s="8"/>
-      <c r="I101" s="8">
-        <v>5.6760227822459122</v>
-      </c>
-      <c r="J101" s="8">
-        <v>1182.0506594751541</v>
+      <c r="I101" s="21">
+        <v>5.5779427444739547</v>
+      </c>
+      <c r="J101" s="21">
+        <v>1163.8091292555541</v>
       </c>
       <c r="L101" s="9">
         <v>50.374655573075799</v>
@@ -9483,11 +9490,11 @@
         <v>36</v>
       </c>
       <c r="H102" s="8"/>
-      <c r="I102" s="8">
-        <v>5.2491773955783785</v>
-      </c>
-      <c r="J102" s="8">
-        <v>1196.4772390933945</v>
+      <c r="I102" s="21">
+        <v>5.2605380952684548</v>
+      </c>
+      <c r="J102" s="21">
+        <v>1177.2837183798613</v>
       </c>
       <c r="L102" s="9">
         <v>50.374655573075799</v>
@@ -9573,11 +9580,11 @@
         <v>36</v>
       </c>
       <c r="H103" s="8"/>
-      <c r="I103" s="8">
-        <v>6.3235798635830704</v>
-      </c>
-      <c r="J103" s="8">
-        <v>1194.3196178852818</v>
+      <c r="I103" s="21">
+        <v>5.9360963373713815</v>
+      </c>
+      <c r="J103" s="21">
+        <v>1173.4204970556054</v>
       </c>
       <c r="L103" s="9">
         <v>50.374655573075799</v>
@@ -9663,11 +9670,11 @@
         <v>36</v>
       </c>
       <c r="H104" s="8"/>
-      <c r="I104" s="8">
-        <v>6.6598277916365092</v>
-      </c>
-      <c r="J104" s="8">
-        <v>1193.7665103591985</v>
+      <c r="I104" s="21">
+        <v>7.0681896248700937</v>
+      </c>
+      <c r="J104" s="21">
+        <v>1176.3275711088741</v>
       </c>
       <c r="L104" s="9">
         <v>50.374655573075799</v>
@@ -9753,11 +9760,11 @@
         <v>36</v>
       </c>
       <c r="H105" s="8"/>
-      <c r="I105" s="8">
-        <v>4.818835006252943</v>
-      </c>
-      <c r="J105" s="8">
-        <v>1182.8162863260468</v>
+      <c r="I105" s="21">
+        <v>4.6414764021871839</v>
+      </c>
+      <c r="J105" s="21">
+        <v>1162.8163358125273</v>
       </c>
       <c r="L105" s="9">
         <v>50.374655573075799</v>
@@ -9843,11 +9850,11 @@
         <v>36</v>
       </c>
       <c r="H106" s="8"/>
-      <c r="I106" s="8">
-        <v>4.1411169450395207</v>
-      </c>
-      <c r="J106" s="8">
-        <v>1177.6977915939974</v>
+      <c r="I106" s="21">
+        <v>3.6449384401148457</v>
+      </c>
+      <c r="J106" s="21">
+        <v>1156.1002402426434</v>
       </c>
       <c r="L106" s="9">
         <v>50.374655573075799</v>
@@ -9933,11 +9940,11 @@
         <v>36</v>
       </c>
       <c r="H107" s="8"/>
-      <c r="I107" s="8">
-        <v>4.8938212187839412</v>
-      </c>
-      <c r="J107" s="8">
-        <v>1180.4206687989367</v>
+      <c r="I107" s="21">
+        <v>4.477154358087283</v>
+      </c>
+      <c r="J107" s="21">
+        <v>1159.4073121730576</v>
       </c>
       <c r="L107" s="9">
         <v>50.374655573075799</v>
@@ -10023,11 +10030,11 @@
         <v>36</v>
       </c>
       <c r="H108" s="8"/>
-      <c r="I108" s="8">
-        <v>6.1720402050584298</v>
-      </c>
-      <c r="J108" s="8">
-        <v>1193.4729388760957</v>
+      <c r="I108" s="21">
+        <v>5.79237122049663</v>
+      </c>
+      <c r="J108" s="21">
+        <v>1172.8375085258781</v>
       </c>
       <c r="L108" s="9">
         <v>50.374655573075799</v>
@@ -10113,11 +10120,11 @@
         <v>36</v>
       </c>
       <c r="H109" s="8"/>
-      <c r="I109" s="8">
-        <v>4.166955567096398</v>
-      </c>
-      <c r="J109" s="8">
-        <v>1185.5395674911069</v>
+      <c r="I109" s="21">
+        <v>3.6255545544015462</v>
+      </c>
+      <c r="J109" s="21">
+        <v>1162.9429279290168</v>
       </c>
       <c r="L109" s="9">
         <v>50.374655573075799</v>
@@ -10203,11 +10210,11 @@
         <v>36</v>
       </c>
       <c r="H110" s="8"/>
-      <c r="I110" s="8">
-        <v>4.8350486924364198</v>
-      </c>
-      <c r="J110" s="8">
-        <v>1173.8838136272698</v>
+      <c r="I110" s="21">
+        <v>4.6060158368376882</v>
+      </c>
+      <c r="J110" s="21">
+        <v>1154.5107616886378</v>
       </c>
       <c r="L110" s="9">
         <v>50.374655573075799</v>
@@ -10293,11 +10300,11 @@
         <v>36</v>
       </c>
       <c r="H111" s="8"/>
-      <c r="I111" s="8">
-        <v>5.2089594318741312</v>
-      </c>
-      <c r="J111" s="8">
-        <v>1170.0952945524675</v>
+      <c r="I111" s="21">
+        <v>4.919726741857815</v>
+      </c>
+      <c r="J111" s="21">
+        <v>1152.7940411978016</v>
       </c>
       <c r="L111" s="9">
         <v>50.374655573075799</v>
@@ -10383,11 +10390,11 @@
         <v>36</v>
       </c>
       <c r="H112" s="8"/>
-      <c r="I112" s="8">
-        <v>3.6655078664526215</v>
-      </c>
-      <c r="J112" s="8">
-        <v>1176.5436112193936</v>
+      <c r="I112" s="21">
+        <v>3.2487635180100156</v>
+      </c>
+      <c r="J112" s="21">
+        <v>1154.5097833059301</v>
       </c>
       <c r="L112" s="9">
         <v>50.374655573075799</v>
@@ -10473,11 +10480,11 @@
         <v>36</v>
       </c>
       <c r="H113" s="8"/>
-      <c r="I113" s="8">
-        <v>5.1264174981627484</v>
-      </c>
-      <c r="J113" s="8">
-        <v>1193.6587583613391</v>
+      <c r="I113" s="21">
+        <v>5.0025508993295524</v>
+      </c>
+      <c r="J113" s="21">
+        <v>1173.9823870825733</v>
       </c>
       <c r="L113" s="9">
         <v>50.374655573075799</v>
@@ -10563,11 +10570,11 @@
         <v>36</v>
       </c>
       <c r="H114" s="8"/>
-      <c r="I114" s="8">
-        <v>4.2710127874488535</v>
-      </c>
-      <c r="J114" s="8">
-        <v>1182.6426142753128</v>
+      <c r="I114" s="21">
+        <v>4.1761733685694544</v>
+      </c>
+      <c r="J114" s="21">
+        <v>1163.1549420697913</v>
       </c>
       <c r="L114" s="9">
         <v>50.374655573075799</v>
@@ -10653,11 +10660,11 @@
         <v>1176.7746303826329</v>
       </c>
       <c r="H115" s="8"/>
-      <c r="I115" s="8">
-        <v>4.0956989183499175</v>
-      </c>
-      <c r="J115" s="8">
-        <v>1190.5327422546325</v>
+      <c r="I115" s="21">
+        <v>3.6175241753277056</v>
+      </c>
+      <c r="J115" s="21">
+        <v>1168.8486050192564</v>
       </c>
       <c r="L115" s="9">
         <v>50.37</v>
@@ -10743,11 +10750,11 @@
         <v>36</v>
       </c>
       <c r="H116" s="8"/>
-      <c r="I116" s="8">
-        <v>4.5378754937072046</v>
-      </c>
-      <c r="J116" s="8">
-        <v>1187.8812870249337</v>
+      <c r="I116" s="21">
+        <v>4.2108124222112657</v>
+      </c>
+      <c r="J116" s="21">
+        <v>1168.7593431224263</v>
       </c>
       <c r="L116" s="9">
         <v>50.37</v>
@@ -10833,11 +10840,11 @@
         <v>36</v>
       </c>
       <c r="H117" s="8"/>
-      <c r="I117" s="8">
-        <v>4.0617924108053849</v>
-      </c>
-      <c r="J117" s="8">
-        <v>1193.2569220377434</v>
+      <c r="I117" s="21">
+        <v>3.4438972880116125</v>
+      </c>
+      <c r="J117" s="21">
+        <v>1168.7539024758664</v>
       </c>
       <c r="L117" s="9">
         <v>50.37</v>
@@ -10923,11 +10930,11 @@
         <v>36</v>
       </c>
       <c r="H118" s="8"/>
-      <c r="I118" s="8">
-        <v>4.8263833136411378</v>
-      </c>
-      <c r="J118" s="8">
-        <v>1183.7161049324236</v>
+      <c r="I118" s="21">
+        <v>3.996595807957835</v>
+      </c>
+      <c r="J118" s="21">
+        <v>1161.0678319558597</v>
       </c>
       <c r="L118" s="9">
         <v>50.37</v>
@@ -11013,11 +11020,11 @@
         <v>36</v>
       </c>
       <c r="H119" s="8"/>
-      <c r="I119" s="8">
-        <v>3.7148021839905958</v>
-      </c>
-      <c r="J119" s="8">
-        <v>1185.3251905570544</v>
+      <c r="I119" s="21">
+        <v>3.1332728518281421</v>
+      </c>
+      <c r="J119" s="21">
+        <v>1161.7154029928606</v>
       </c>
       <c r="L119" s="9">
         <v>50.37</v>
@@ -11103,11 +11110,11 @@
         <v>36</v>
       </c>
       <c r="H120" s="8"/>
-      <c r="I120" s="8">
-        <v>4.2564987812692721</v>
-      </c>
-      <c r="J120" s="8">
-        <v>1184.7886701000775</v>
+      <c r="I120" s="21">
+        <v>3.4653573821652408</v>
+      </c>
+      <c r="J120" s="21">
+        <v>1162.4414702450324</v>
       </c>
       <c r="L120" s="9">
         <v>50.37</v>
@@ -11193,11 +11200,11 @@
         <v>36</v>
       </c>
       <c r="H121" s="8"/>
-      <c r="I121" s="8">
-        <v>3.0340672496317183</v>
-      </c>
-      <c r="J121" s="8">
-        <v>1174.70939042232</v>
+      <c r="I121" s="21">
+        <v>2.2750896206686342</v>
+      </c>
+      <c r="J121" s="21">
+        <v>1153.5538279331574</v>
       </c>
       <c r="L121" s="9">
         <v>50.37</v>
@@ -11283,11 +11290,11 @@
         <v>36</v>
       </c>
       <c r="H122" s="8"/>
-      <c r="I122" s="8">
-        <v>3.6742470891747132</v>
-      </c>
-      <c r="J122" s="8">
-        <v>1190.280251176162</v>
+      <c r="I122" s="21">
+        <v>3.1734284397400891</v>
+      </c>
+      <c r="J122" s="21">
+        <v>1168.6045282987513</v>
       </c>
       <c r="L122" s="9">
         <v>50.37</v>
@@ -11373,11 +11380,11 @@
         <v>36</v>
       </c>
       <c r="H123" s="8"/>
-      <c r="I123" s="8">
-        <v>4.820901552741951</v>
-      </c>
-      <c r="J123" s="8">
-        <v>1186.7950211234263</v>
+      <c r="I123" s="21">
+        <v>4.4996940403254833</v>
+      </c>
+      <c r="J123" s="21">
+        <v>1168.4312773516733</v>
       </c>
       <c r="L123" s="9">
         <v>50.37</v>
@@ -11463,11 +11470,11 @@
         <v>36</v>
       </c>
       <c r="H124" s="8"/>
-      <c r="I124" s="8">
-        <v>2.5227942305188336</v>
-      </c>
-      <c r="J124" s="8">
-        <v>1177.7964938744742</v>
+      <c r="I124" s="21">
+        <v>1.9016236480866766</v>
+      </c>
+      <c r="J124" s="21">
+        <v>1155.6841335395516</v>
       </c>
       <c r="L124" s="9">
         <v>50.37</v>
@@ -11553,11 +11560,11 @@
         <v>1184.8834008268582</v>
       </c>
       <c r="H125" s="8"/>
-      <c r="I125" s="8">
-        <v>4.7862390746297052</v>
-      </c>
-      <c r="J125" s="8">
-        <v>1192.6246455857699</v>
+      <c r="I125" s="21">
+        <v>4.6829695088504977</v>
+      </c>
+      <c r="J125" s="21">
+        <v>1175.3364015741756</v>
       </c>
       <c r="L125" s="9">
         <v>50.37</v>
@@ -11643,11 +11650,11 @@
         <v>36</v>
       </c>
       <c r="H126" s="8"/>
-      <c r="I126" s="8">
-        <v>4.2756793394001313</v>
-      </c>
-      <c r="J126" s="8">
-        <v>1190.4132652200078</v>
+      <c r="I126" s="21">
+        <v>4.0706472690180426</v>
+      </c>
+      <c r="J126" s="21">
+        <v>1170.9102120524026</v>
       </c>
       <c r="L126" s="9">
         <v>50.37</v>
@@ -11733,11 +11740,11 @@
         <v>36</v>
       </c>
       <c r="H127" s="8"/>
-      <c r="I127" s="8">
-        <v>4.7998764326322672</v>
-      </c>
-      <c r="J127" s="8">
-        <v>1184.1085710120612</v>
+      <c r="I127" s="21">
+        <v>4.3907113365911137</v>
+      </c>
+      <c r="J127" s="21">
+        <v>1165.0188686252466</v>
       </c>
       <c r="L127" s="9">
         <v>50.37</v>
@@ -11823,11 +11830,11 @@
         <v>1183.5068169099764</v>
       </c>
       <c r="H128" s="8"/>
-      <c r="I128" s="8">
-        <v>5.1188910698269048</v>
-      </c>
-      <c r="J128" s="8">
-        <v>1202.3058647971225</v>
+      <c r="I128" s="21">
+        <v>5.0943061830333249</v>
+      </c>
+      <c r="J128" s="21">
+        <v>1184.4223255055626</v>
       </c>
       <c r="L128" s="9">
         <v>50.37</v>
@@ -11913,11 +11920,11 @@
         <v>36</v>
       </c>
       <c r="H129" s="8"/>
-      <c r="I129" s="8">
-        <v>4.9923709174266797</v>
-      </c>
-      <c r="J129" s="8">
-        <v>1195.691033598737</v>
+      <c r="I129" s="21">
+        <v>4.7623611322281079</v>
+      </c>
+      <c r="J129" s="21">
+        <v>1177.2513097295507</v>
       </c>
       <c r="L129" s="9">
         <v>50.37</v>
@@ -12003,11 +12010,11 @@
         <v>36</v>
       </c>
       <c r="H130" s="8"/>
-      <c r="I130" s="8">
-        <v>4.9199853175340991</v>
-      </c>
-      <c r="J130" s="8">
-        <v>1185.8110303336155</v>
+      <c r="I130" s="21">
+        <v>4.6484115012738734</v>
+      </c>
+      <c r="J130" s="21">
+        <v>1167.2531271692928</v>
       </c>
       <c r="L130" s="9">
         <v>50.37</v>
@@ -12093,11 +12100,11 @@
         <v>36</v>
       </c>
       <c r="H131" s="8"/>
-      <c r="I131" s="8">
-        <v>5.3936058460167615</v>
-      </c>
-      <c r="J131" s="8">
-        <v>1201.2899715175827</v>
+      <c r="I131" s="21">
+        <v>5.1516191750695377</v>
+      </c>
+      <c r="J131" s="21">
+        <v>1184.9639979341684</v>
       </c>
       <c r="L131" s="9">
         <v>50.37</v>
@@ -12183,11 +12190,11 @@
         <v>36</v>
       </c>
       <c r="H132" s="8"/>
-      <c r="I132" s="8">
-        <v>4.9628528365449078</v>
-      </c>
-      <c r="J132" s="8">
-        <v>1183.2761192216622</v>
+      <c r="I132" s="21">
+        <v>4.6755148312355246</v>
+      </c>
+      <c r="J132" s="21">
+        <v>1166.4925789078468</v>
       </c>
       <c r="L132" s="9">
         <v>50.37</v>
@@ -12273,11 +12280,11 @@
         <v>36</v>
       </c>
       <c r="H133" s="8"/>
-      <c r="I133" s="8">
-        <v>4.426359933000267</v>
-      </c>
-      <c r="J133" s="8">
-        <v>1192.6045213069592</v>
+      <c r="I133" s="21">
+        <v>4.0512675991981268</v>
+      </c>
+      <c r="J133" s="21">
+        <v>1174.1564899337557</v>
       </c>
       <c r="L133" s="9">
         <v>50.37</v>
@@ -12363,11 +12370,11 @@
         <v>36</v>
       </c>
       <c r="H134" s="8"/>
-      <c r="I134" s="8">
-        <v>4.8943523363190025</v>
-      </c>
-      <c r="J134" s="8">
-        <v>1191.3275273345969</v>
+      <c r="I134" s="21">
+        <v>4.7261849930965418</v>
+      </c>
+      <c r="J134" s="21">
+        <v>1172.7430102397759</v>
       </c>
       <c r="L134" s="9">
         <v>50.37</v>
@@ -12453,11 +12460,11 @@
         <v>1187.9120112193932</v>
       </c>
       <c r="H135" s="8"/>
-      <c r="I135" s="8">
-        <v>5.3520346098204286</v>
-      </c>
-      <c r="J135" s="8">
-        <v>1197.8805838953629</v>
+      <c r="I135" s="21">
+        <v>4.9347341485860916</v>
+      </c>
+      <c r="J135" s="21">
+        <v>1177.9772055627807</v>
       </c>
       <c r="L135" s="9">
         <v>50.37</v>
@@ -12543,11 +12550,11 @@
         <v>36</v>
       </c>
       <c r="H136" s="8"/>
-      <c r="I136" s="8">
-        <v>4.3957990529382336</v>
-      </c>
-      <c r="J136" s="8">
-        <v>1186.7753970756557</v>
+      <c r="I136" s="21">
+        <v>4.0031413580430772</v>
+      </c>
+      <c r="J136" s="21">
+        <v>1167.2920858029913</v>
       </c>
       <c r="L136" s="9">
         <v>50.37</v>
@@ -12633,11 +12640,11 @@
         <v>36</v>
       </c>
       <c r="H137" s="8"/>
-      <c r="I137" s="8">
-        <v>4.3589112628708691</v>
-      </c>
-      <c r="J137" s="8">
-        <v>1195.3113321193223</v>
+      <c r="I137" s="21">
+        <v>4.2472822910387613</v>
+      </c>
+      <c r="J137" s="21">
+        <v>1177.7118668855298</v>
       </c>
       <c r="L137" s="9">
         <v>50.37</v>
@@ -12723,11 +12730,11 @@
         <v>36</v>
       </c>
       <c r="H138" s="8"/>
-      <c r="I138" s="8">
-        <v>4.3922980976875436</v>
-      </c>
-      <c r="J138" s="8">
-        <v>1188.9415727796322</v>
+      <c r="I138" s="21">
+        <v>4.2072387183993243</v>
+      </c>
+      <c r="J138" s="21">
+        <v>1171.8671195080515</v>
       </c>
       <c r="L138" s="9">
         <v>50.37</v>
@@ -12813,11 +12820,11 @@
         <v>36</v>
       </c>
       <c r="H139" s="8"/>
-      <c r="I139" s="8">
-        <v>4.7599084258212265</v>
-      </c>
-      <c r="J139" s="8">
-        <v>1187.6877048106733</v>
+      <c r="I139" s="21">
+        <v>4.5985575962830474</v>
+      </c>
+      <c r="J139" s="21">
+        <v>1169.7402869232055</v>
       </c>
       <c r="L139" s="9">
         <v>50.37</v>
@@ -12903,11 +12910,11 @@
         <v>1179.5529293636214</v>
       </c>
       <c r="H140" s="8"/>
-      <c r="I140" s="8">
-        <v>4.9750558218367189</v>
-      </c>
-      <c r="J140" s="8">
-        <v>1190.9091385997247</v>
+      <c r="I140" s="21">
+        <v>4.4161615028953918</v>
+      </c>
+      <c r="J140" s="21">
+        <v>1171.0530772187535</v>
       </c>
       <c r="L140" s="9">
         <v>50.37</v>
@@ -12993,11 +13000,11 @@
         <v>36</v>
       </c>
       <c r="H141" s="8"/>
-      <c r="I141" s="8">
-        <v>5.0058688661923654</v>
-      </c>
-      <c r="J141" s="8">
-        <v>1187.2185270533878</v>
+      <c r="I141" s="21">
+        <v>4.934730762301573</v>
+      </c>
+      <c r="J141" s="21">
+        <v>1170.8209326913488</v>
       </c>
       <c r="L141" s="9">
         <v>50.37</v>
@@ -13083,11 +13090,11 @@
         <v>36</v>
       </c>
       <c r="H142" s="8"/>
-      <c r="I142" s="8">
-        <v>5.2822686504597378</v>
-      </c>
-      <c r="J142" s="8">
-        <v>1182.8061010688234</v>
+      <c r="I142" s="21">
+        <v>4.7127559509928112</v>
+      </c>
+      <c r="J142" s="21">
+        <v>1163.4853921285592</v>
       </c>
       <c r="L142" s="9">
         <v>50.37</v>
@@ -13173,11 +13180,11 @@
         <v>36</v>
       </c>
       <c r="H143" s="8"/>
-      <c r="I143" s="8">
-        <v>4.9737697332797666</v>
-      </c>
-      <c r="J143" s="8">
-        <v>1189.1053070671553</v>
+      <c r="I143" s="21">
+        <v>4.8152246180361864</v>
+      </c>
+      <c r="J143" s="21">
+        <v>1171.3348493364617</v>
       </c>
       <c r="L143" s="9">
         <v>50.37</v>
@@ -13263,11 +13270,11 @@
         <v>36</v>
       </c>
       <c r="H144" s="8"/>
-      <c r="I144" s="8">
-        <v>5.2032369133133045</v>
-      </c>
-      <c r="J144" s="8">
-        <v>1194.5038584661627</v>
+      <c r="I144" s="21">
+        <v>5.1235785010718082</v>
+      </c>
+      <c r="J144" s="21">
+        <v>1176.7278225400914</v>
       </c>
       <c r="L144" s="9">
         <v>50.37</v>
@@ -13353,11 +13360,11 @@
         <v>36</v>
       </c>
       <c r="H145" s="8"/>
-      <c r="I145" s="8">
-        <v>5.2637526341969831</v>
-      </c>
-      <c r="J145" s="8">
-        <v>1204.2109059275626</v>
+      <c r="I145" s="21">
+        <v>5.1540752067683115</v>
+      </c>
+      <c r="J145" s="21">
+        <v>1185.3552538380359</v>
       </c>
       <c r="L145" s="9">
         <v>50.37</v>
@@ -13443,11 +13450,11 @@
         <v>36</v>
       </c>
       <c r="H146" s="8"/>
-      <c r="I146" s="8">
-        <v>4.0575656117997383</v>
-      </c>
-      <c r="J146" s="8">
-        <v>1189.2353437025763</v>
+      <c r="I146" s="21">
+        <v>3.872849439328423</v>
+      </c>
+      <c r="J146" s="21">
+        <v>1170.3368971803143</v>
       </c>
       <c r="L146" s="9">
         <v>50.37</v>
@@ -13533,11 +13540,11 @@
         <v>36</v>
       </c>
       <c r="H147" s="8"/>
-      <c r="I147" s="8">
-        <v>5.5746730759356744</v>
-      </c>
-      <c r="J147" s="8">
-        <v>1196.4713112320101</v>
+      <c r="I147" s="21">
+        <v>5.3389464859792639</v>
+      </c>
+      <c r="J147" s="21">
+        <v>1176.7493062601654</v>
       </c>
       <c r="L147" s="9">
         <v>50.37</v>
@@ -13623,11 +13630,11 @@
         <v>1191.5948664424245</v>
       </c>
       <c r="H148" s="8"/>
-      <c r="I148" s="8">
-        <v>5.0115433135211269</v>
-      </c>
-      <c r="J148" s="8">
-        <v>1194.4568158073928</v>
+      <c r="I148" s="21">
+        <v>4.5725069531269504</v>
+      </c>
+      <c r="J148" s="21">
+        <v>1174.5640286068547</v>
       </c>
       <c r="L148" s="9">
         <v>50.37</v>
@@ -13713,11 +13720,11 @@
         <v>1176.4368582658262</v>
       </c>
       <c r="H149" s="8"/>
-      <c r="I149" s="8">
-        <v>4.1509827001105393</v>
-      </c>
-      <c r="J149" s="8">
-        <v>1195.6135053607331</v>
+      <c r="I149" s="21">
+        <v>3.6819188408276702</v>
+      </c>
+      <c r="J149" s="21">
+        <v>1174.2138720829005</v>
       </c>
       <c r="L149" s="9">
         <v>50.37</v>
@@ -13803,11 +13810,11 @@
         <v>1192.3891640942156</v>
       </c>
       <c r="H150" s="8"/>
-      <c r="I150" s="8">
-        <v>5.0913994614115836</v>
-      </c>
-      <c r="J150" s="8">
-        <v>1182.552310925133</v>
+      <c r="I150" s="21">
+        <v>4.4892285418476696</v>
+      </c>
+      <c r="J150" s="21">
+        <v>1163.167838850771</v>
       </c>
       <c r="L150" s="9">
         <v>50.37</v>
@@ -13893,11 +13900,11 @@
         <v>36</v>
       </c>
       <c r="H151" s="8"/>
-      <c r="I151" s="8">
-        <v>5.3320046142222814</v>
-      </c>
-      <c r="J151" s="8">
-        <v>1185.0434875562796</v>
+      <c r="I151" s="21">
+        <v>4.8467499680448363</v>
+      </c>
+      <c r="J151" s="21">
+        <v>1167.4453079219734</v>
       </c>
       <c r="L151" s="9">
         <v>50.37</v>
@@ -13983,11 +13990,11 @@
         <v>1195.8102748210435</v>
       </c>
       <c r="H152" s="8"/>
-      <c r="I152" s="8">
-        <v>5.3557529531822468</v>
-      </c>
-      <c r="J152" s="8">
-        <v>1184.9676590011768</v>
+      <c r="I152" s="21">
+        <v>4.8845648146195799</v>
+      </c>
+      <c r="J152" s="21">
+        <v>1165.9904318959018</v>
       </c>
       <c r="L152" s="9">
         <v>50.37</v>
@@ -14073,11 +14080,11 @@
         <v>36</v>
       </c>
       <c r="H153" s="8"/>
-      <c r="I153" s="8">
-        <v>6.4161091832876522</v>
-      </c>
-      <c r="J153" s="8">
-        <v>1198.2677996011848</v>
+      <c r="I153" s="21">
+        <v>6.4581343631032659</v>
+      </c>
+      <c r="J153" s="21">
+        <v>1182.9967485293246</v>
       </c>
       <c r="L153" s="9">
         <v>50.26391161676348</v>
@@ -14163,11 +14170,11 @@
         <v>36</v>
       </c>
       <c r="H154" s="8"/>
-      <c r="I154" s="8">
-        <v>6.9549338095904254</v>
-      </c>
-      <c r="J154" s="8">
-        <v>1172.6614918478922</v>
+      <c r="I154" s="21">
+        <v>5.6669776280489756</v>
+      </c>
+      <c r="J154" s="21">
+        <v>1153.8466989255708</v>
       </c>
       <c r="L154" s="9">
         <v>50.26391161676348</v>
@@ -14253,11 +14260,11 @@
         <v>1183.6377580666781</v>
       </c>
       <c r="H155" s="8"/>
-      <c r="I155" s="8">
-        <v>3.6448835805260664</v>
-      </c>
-      <c r="J155" s="8">
-        <v>1196.6241116348433</v>
+      <c r="I155" s="21">
+        <v>3.270335707591677</v>
+      </c>
+      <c r="J155" s="21">
+        <v>1175.7612058103505</v>
       </c>
       <c r="L155" s="9">
         <v>50.26391161676348</v>
@@ -14343,11 +14350,11 @@
         <v>1195.9182568236997</v>
       </c>
       <c r="H156" s="8"/>
-      <c r="I156" s="8">
-        <v>4.4422194045983687</v>
-      </c>
-      <c r="J156" s="8">
-        <v>1183.2108185771854</v>
+      <c r="I156" s="21">
+        <v>3.4188636665297949</v>
+      </c>
+      <c r="J156" s="21">
+        <v>1161.8654713693379</v>
       </c>
       <c r="L156" s="9">
         <v>50.26391161676348</v>
@@ -14433,11 +14440,11 @@
         <v>36</v>
       </c>
       <c r="H157" s="8"/>
-      <c r="I157" s="8">
-        <v>6.7798428772004229</v>
-      </c>
-      <c r="J157" s="8">
-        <v>1176.3735226777628</v>
+      <c r="I157" s="21">
+        <v>5.7365935682907363</v>
+      </c>
+      <c r="J157" s="21">
+        <v>1158.345540754621</v>
       </c>
       <c r="L157" s="9">
         <v>50.26391161676348</v>
@@ -14523,11 +14530,11 @@
         <v>36</v>
       </c>
       <c r="H158" s="8"/>
-      <c r="I158" s="8">
-        <v>5.2544973056891031</v>
-      </c>
-      <c r="J158" s="8">
-        <v>1183.524815806363</v>
+      <c r="I158" s="21">
+        <v>4.2102231995385715</v>
+      </c>
+      <c r="J158" s="21">
+        <v>1161.316142788552</v>
       </c>
       <c r="L158" s="9">
         <v>50.26391161676348</v>
@@ -14613,11 +14620,11 @@
         <v>1205.7121810972526</v>
       </c>
       <c r="H159" s="8"/>
-      <c r="I159" s="8">
-        <v>5.2498351009478483</v>
-      </c>
-      <c r="J159" s="8">
-        <v>1186.6757520427791</v>
+      <c r="I159" s="21">
+        <v>4.2808310047703095</v>
+      </c>
+      <c r="J159" s="21">
+        <v>1165.7767926363376</v>
       </c>
       <c r="L159" s="9">
         <v>50.26391161676348</v>
@@ -14703,11 +14710,11 @@
         <v>36</v>
       </c>
       <c r="H160" s="8"/>
-      <c r="I160" s="8">
-        <v>4.6511321526080884</v>
-      </c>
-      <c r="J160" s="8">
-        <v>1198.1360063695276</v>
+      <c r="I160" s="21">
+        <v>4.2815535548892463</v>
+      </c>
+      <c r="J160" s="21">
+        <v>1179.9607296060981</v>
       </c>
       <c r="L160" s="9">
         <v>50.26391161676348</v>
@@ -14793,11 +14800,11 @@
         <v>36</v>
       </c>
       <c r="H161" s="8"/>
-      <c r="I161" s="8">
-        <v>4.7999490595758658</v>
-      </c>
-      <c r="J161" s="8">
-        <v>1192.4820729640542</v>
+      <c r="I161" s="21">
+        <v>4.227941905410006</v>
+      </c>
+      <c r="J161" s="21">
+        <v>1171.5471141789501</v>
       </c>
       <c r="L161" s="9">
         <v>50.26391161676348</v>
@@ -14883,11 +14890,11 @@
         <v>36</v>
       </c>
       <c r="H162" s="8"/>
-      <c r="I162" s="8">
-        <v>4.9163968926195132</v>
-      </c>
-      <c r="J162" s="8">
-        <v>1166.8815602935153</v>
+      <c r="I162" s="21">
+        <v>3.7303519638402669</v>
+      </c>
+      <c r="J162" s="21">
+        <v>1147.4251556717311</v>
       </c>
       <c r="L162" s="9">
         <v>50.26391161676348</v>
@@ -14973,11 +14980,11 @@
         <v>36</v>
       </c>
       <c r="H163" s="8"/>
-      <c r="I163" s="8">
-        <v>5.3863486530083087</v>
-      </c>
-      <c r="J163" s="8">
-        <v>1204.5597424833613</v>
+      <c r="I163" s="21">
+        <v>5.3027139421934599</v>
+      </c>
+      <c r="J163" s="21">
+        <v>1186.5898834855327</v>
       </c>
       <c r="L163" s="9">
         <v>50.26391161676348</v>
@@ -15063,11 +15070,11 @@
         <v>1187.4622281394104</v>
       </c>
       <c r="H164" s="8"/>
-      <c r="I164" s="8">
-        <v>4.2475763505819941</v>
-      </c>
-      <c r="J164" s="8">
-        <v>1204.0730983714734</v>
+      <c r="I164" s="21">
+        <v>4.1377703975776328</v>
+      </c>
+      <c r="J164" s="21">
+        <v>1185.4669104696752</v>
       </c>
       <c r="L164" s="9">
         <v>50.26391161676348</v>
@@ -15153,11 +15160,11 @@
         <v>36</v>
       </c>
       <c r="H165" s="8"/>
-      <c r="I165" s="8">
-        <v>5.4470462583472283</v>
-      </c>
-      <c r="J165" s="8">
-        <v>1199.9185808350162</v>
+      <c r="I165" s="21">
+        <v>5.1587096649767865</v>
+      </c>
+      <c r="J165" s="21">
+        <v>1181.0560828890566</v>
       </c>
       <c r="L165" s="9">
         <v>50.26391161676348</v>
@@ -15243,11 +15250,11 @@
         <v>1197.8854034521491</v>
       </c>
       <c r="H166" s="8"/>
-      <c r="I166" s="8">
-        <v>4.0459695097396349</v>
-      </c>
-      <c r="J166" s="8">
-        <v>1206.4522118899283</v>
+      <c r="I166" s="21">
+        <v>3.7449350023942536</v>
+      </c>
+      <c r="J166" s="21">
+        <v>1184.9778537636494</v>
       </c>
       <c r="L166" s="9">
         <v>50.26391161676348</v>
@@ -15333,11 +15340,11 @@
         <v>1202.0137469744818</v>
       </c>
       <c r="H167" s="8"/>
-      <c r="I167" s="8">
-        <v>4.5573534473527246</v>
-      </c>
-      <c r="J167" s="8">
-        <v>1207.2109402421486</v>
+      <c r="I167" s="21">
+        <v>4.1575614590086118</v>
+      </c>
+      <c r="J167" s="21">
+        <v>1185.1456282902025</v>
       </c>
       <c r="L167" s="9">
         <v>50.26391161676348</v>
@@ -15423,11 +15430,11 @@
         <v>1190.7771153191002</v>
       </c>
       <c r="H168" s="8"/>
-      <c r="I168" s="8">
-        <v>4.1920662961144117</v>
-      </c>
-      <c r="J168" s="8">
-        <v>1212.3335920990069</v>
+      <c r="I168" s="21">
+        <v>4.1860662445342172</v>
+      </c>
+      <c r="J168" s="21">
+        <v>1193.6632186921536</v>
       </c>
       <c r="L168" s="9">
         <v>50.26391161676348</v>
@@ -15513,11 +15520,11 @@
         <v>36</v>
       </c>
       <c r="H169" s="8"/>
-      <c r="I169" s="8">
-        <v>5.0535809478934866</v>
-      </c>
-      <c r="J169" s="8">
-        <v>1210.7170862270541</v>
+      <c r="I169" s="21">
+        <v>4.9130338466881476</v>
+      </c>
+      <c r="J169" s="21">
+        <v>1190.5980593751601</v>
       </c>
       <c r="L169" s="9">
         <v>50.26391161676348</v>
@@ -15603,11 +15610,11 @@
         <v>36</v>
       </c>
       <c r="H170" s="8"/>
-      <c r="I170" s="8">
-        <v>4.2284846025242047</v>
-      </c>
-      <c r="J170" s="8">
-        <v>1194.7939903216163</v>
+      <c r="I170" s="21">
+        <v>4.010347923183307</v>
+      </c>
+      <c r="J170" s="21">
+        <v>1177.3865427062547</v>
       </c>
       <c r="L170" s="9">
         <v>50.26391161676348</v>
@@ -15693,11 +15700,11 @@
         <v>1193.2960217134705</v>
       </c>
       <c r="H171" s="8"/>
-      <c r="I171" s="8">
-        <v>3.8461091880745286</v>
-      </c>
-      <c r="J171" s="8">
-        <v>1203.2099066497231</v>
+      <c r="I171" s="21">
+        <v>3.5760587598365667</v>
+      </c>
+      <c r="J171" s="21">
+        <v>1181.5395942725179</v>
       </c>
       <c r="L171" s="9">
         <v>50.26391161676348</v>
@@ -15783,11 +15790,11 @@
         <v>36</v>
       </c>
       <c r="H172" s="8"/>
-      <c r="I172" s="8">
-        <v>4.9493401133751185</v>
-      </c>
-      <c r="J172" s="8">
-        <v>1199.5075535394769</v>
+      <c r="I172" s="21">
+        <v>4.8466105774604031</v>
+      </c>
+      <c r="J172" s="21">
+        <v>1180.4266951207676</v>
       </c>
       <c r="L172" s="9">
         <v>50.26391161676348</v>
@@ -15873,11 +15880,11 @@
         <v>36</v>
       </c>
       <c r="H173" s="8"/>
-      <c r="I173" s="8">
-        <v>4.1860165168260792</v>
-      </c>
-      <c r="J173" s="8">
-        <v>1202.0269832459567</v>
+      <c r="I173" s="21">
+        <v>4.459625677010461</v>
+      </c>
+      <c r="J173" s="21">
+        <v>1183.8021009844865</v>
       </c>
       <c r="L173" s="9">
         <v>50.26391161676348</v>
@@ -15963,11 +15970,11 @@
         <v>36</v>
       </c>
       <c r="H174" s="8"/>
-      <c r="I174" s="8">
-        <v>6.7031888169060743</v>
-      </c>
-      <c r="J174" s="8">
-        <v>1207.6002633301632</v>
+      <c r="I174" s="21">
+        <v>6.8851948877295222</v>
+      </c>
+      <c r="J174" s="21">
+        <v>1190.1660522477609</v>
       </c>
       <c r="L174" s="9">
         <v>50.26391161676348</v>
@@ -16053,11 +16060,11 @@
         <v>1197.009398255349</v>
       </c>
       <c r="H175" s="8"/>
-      <c r="I175" s="8">
-        <v>4.0802896143066931</v>
-      </c>
-      <c r="J175" s="8">
-        <v>1206.3908573677834</v>
+      <c r="I175" s="21">
+        <v>3.9216866290537062</v>
+      </c>
+      <c r="J175" s="21">
+        <v>1185.8779559202933</v>
       </c>
       <c r="L175" s="9">
         <v>50.26391161676348</v>
@@ -16143,11 +16150,11 @@
         <v>36</v>
       </c>
       <c r="H176" s="8"/>
-      <c r="I176" s="8">
-        <v>4.4781306782678882</v>
-      </c>
-      <c r="J176" s="8">
-        <v>1202.398870870263</v>
+      <c r="I176" s="21">
+        <v>4.4354997407851222</v>
+      </c>
+      <c r="J176" s="21">
+        <v>1182.7359839892872</v>
       </c>
       <c r="L176" s="9">
         <v>50.26391161676348</v>
@@ -16233,11 +16240,11 @@
         <v>36</v>
       </c>
       <c r="H177" s="8"/>
-      <c r="I177" s="8">
-        <v>4.23041253557275</v>
-      </c>
-      <c r="J177" s="8">
-        <v>1198.2787617502436</v>
+      <c r="I177" s="21">
+        <v>4.0499422902309092</v>
+      </c>
+      <c r="J177" s="21">
+        <v>1178.3124464190585</v>
       </c>
       <c r="L177" s="9">
         <v>50.26391161676348</v>
@@ -16323,11 +16330,11 @@
         <v>1192.3139106660587</v>
       </c>
       <c r="H178" s="8"/>
-      <c r="I178" s="8">
-        <v>4.0368380451942336</v>
-      </c>
-      <c r="J178" s="8">
-        <v>1200.8766645241358</v>
+      <c r="I178" s="21">
+        <v>3.7291579547769054</v>
+      </c>
+      <c r="J178" s="21">
+        <v>1179.7213457437238</v>
       </c>
       <c r="L178" s="9">
         <v>50.26391161676348</v>
@@ -16413,11 +16420,11 @@
         <v>36</v>
       </c>
       <c r="H179" s="8"/>
-      <c r="I179" s="8">
-        <v>4.5165099207806136</v>
-      </c>
-      <c r="J179" s="8">
-        <v>1195.3521355691657</v>
+      <c r="I179" s="21">
+        <v>4.4707329083391372</v>
+      </c>
+      <c r="J179" s="21">
+        <v>1177.6495755754713</v>
       </c>
       <c r="L179" s="9">
         <v>50.26391161676348</v>
@@ -16503,11 +16510,11 @@
         <v>1186.3008147317137</v>
       </c>
       <c r="H180" s="8"/>
-      <c r="I180" s="8">
-        <v>3.9928928479036117</v>
-      </c>
-      <c r="J180" s="8">
-        <v>1210.3688303524991</v>
+      <c r="I180" s="21">
+        <v>3.9890836579754634</v>
+      </c>
+      <c r="J180" s="21">
+        <v>1190.4584655777339</v>
       </c>
       <c r="L180" s="9">
         <v>50.26391161676348</v>
@@ -16593,11 +16600,11 @@
         <v>36</v>
       </c>
       <c r="H181" s="8"/>
-      <c r="I181" s="8">
-        <v>5.0881572371114032</v>
-      </c>
-      <c r="J181" s="8">
-        <v>1211.6387510559744</v>
+      <c r="I181" s="21">
+        <v>5.452020603182806</v>
+      </c>
+      <c r="J181" s="21">
+        <v>1194.2520021581245</v>
       </c>
       <c r="L181" s="9">
         <v>50.26391161676348</v>
@@ -16683,11 +16690,11 @@
         <v>36</v>
       </c>
       <c r="H182" s="8"/>
-      <c r="I182" s="8">
-        <v>4.98089521396804</v>
-      </c>
-      <c r="J182" s="8">
-        <v>1207.6444017370627</v>
+      <c r="I182" s="21">
+        <v>4.8948686019461043</v>
+      </c>
+      <c r="J182" s="21">
+        <v>1188.6596317446065</v>
       </c>
       <c r="L182" s="9">
         <v>50.26391161676348</v>
@@ -16773,11 +16780,11 @@
         <v>1204.4799214973159</v>
       </c>
       <c r="H183" s="8"/>
-      <c r="I183" s="8">
-        <v>4.4608113514216434</v>
-      </c>
-      <c r="J183" s="8">
-        <v>1204.1238884696349</v>
+      <c r="I183" s="21">
+        <v>4.1930782227030541</v>
+      </c>
+      <c r="J183" s="21">
+        <v>1182.0676501666371</v>
       </c>
       <c r="L183" s="9">
         <v>50.26391161676348</v>
@@ -16863,11 +16870,11 @@
         <v>1206.7818269943559</v>
       </c>
       <c r="H184" s="8"/>
-      <c r="I184" s="8">
-        <v>4.8013391601898796</v>
-      </c>
-      <c r="J184" s="8">
-        <v>1203.7909184426596</v>
+      <c r="I184" s="21">
+        <v>4.4951194752588961</v>
+      </c>
+      <c r="J184" s="21">
+        <v>1182.7687189225203</v>
       </c>
       <c r="L184" s="9">
         <v>50.26391161676348</v>
@@ -16953,11 +16960,11 @@
         <v>1190.1728672032741</v>
       </c>
       <c r="H185" s="8"/>
-      <c r="I185" s="8">
-        <v>4.3028920723285431</v>
-      </c>
-      <c r="J185" s="8">
-        <v>1206.3340545421754</v>
+      <c r="I185" s="21">
+        <v>3.8173254599126132</v>
+      </c>
+      <c r="J185" s="21">
+        <v>1184.3771385481152</v>
       </c>
       <c r="L185" s="9">
         <v>50.26391161676348</v>
@@ -17043,11 +17050,11 @@
         <v>1192.3954692009497</v>
       </c>
       <c r="H186" s="8"/>
-      <c r="I186" s="8">
-        <v>4.4697491439209074</v>
-      </c>
-      <c r="J186" s="8">
-        <v>1205.0661809760736</v>
+      <c r="I186" s="21">
+        <v>4.3512297520363425</v>
+      </c>
+      <c r="J186" s="21">
+        <v>1186.3417656919792</v>
       </c>
       <c r="L186" s="9">
         <v>50.26391161676348</v>
@@ -17133,11 +17140,11 @@
         <v>1196.9066356610315</v>
       </c>
       <c r="H187" s="8"/>
-      <c r="I187" s="8">
-        <v>4.0381987399988404</v>
-      </c>
-      <c r="J187" s="8">
-        <v>1192.9987572979965</v>
+      <c r="I187" s="21">
+        <v>3.6875237053039278</v>
+      </c>
+      <c r="J187" s="21">
+        <v>1172.2287949323868</v>
       </c>
       <c r="L187" s="9">
         <v>50.26391161676348</v>
@@ -17223,11 +17230,11 @@
         <v>1159.9706002197581</v>
       </c>
       <c r="H188" s="8"/>
-      <c r="I188" s="8">
-        <v>3.4418409390394942</v>
-      </c>
-      <c r="J188" s="8">
-        <v>1146.2476628306649</v>
+      <c r="I188" s="21">
+        <v>2.491516986500784</v>
+      </c>
+      <c r="J188" s="21">
+        <v>1127.5015467771461</v>
       </c>
       <c r="L188" s="9">
         <v>49.22</v>
@@ -17313,11 +17320,11 @@
         <v>36</v>
       </c>
       <c r="H189" s="8"/>
-      <c r="I189" s="8">
-        <v>2.8335839684371926</v>
-      </c>
-      <c r="J189" s="8">
-        <v>1148.1495864203443</v>
+      <c r="I189" s="21">
+        <v>1.9407839471705159</v>
+      </c>
+      <c r="J189" s="21">
+        <v>1130.3269116624047</v>
       </c>
       <c r="L189" s="9">
         <v>49.22</v>
@@ -17403,11 +17410,11 @@
         <v>36</v>
       </c>
       <c r="H190" s="8"/>
-      <c r="I190" s="8">
-        <v>3.5840333528255854</v>
-      </c>
-      <c r="J190" s="8">
-        <v>1162.9386112728473</v>
+      <c r="I190" s="21">
+        <v>2.6597163573580396</v>
+      </c>
+      <c r="J190" s="21">
+        <v>1143.261547765499</v>
       </c>
       <c r="L190" s="9">
         <v>49.22</v>
@@ -17493,11 +17500,11 @@
         <v>36</v>
       </c>
       <c r="H191" s="8"/>
-      <c r="I191" s="8">
-        <v>3.9903765601986159</v>
-      </c>
-      <c r="J191" s="8">
-        <v>1150.433131730342</v>
+      <c r="I191" s="21">
+        <v>3.248990544665368</v>
+      </c>
+      <c r="J191" s="21">
+        <v>1134.8070455480424</v>
       </c>
       <c r="L191" s="9">
         <v>49.22</v>
@@ -17583,11 +17590,11 @@
         <v>1175.1798226449241</v>
       </c>
       <c r="H192" s="8"/>
-      <c r="I192" s="8">
-        <v>4.7613084533730934</v>
-      </c>
-      <c r="J192" s="8">
-        <v>1163.6471902916769</v>
+      <c r="I192" s="21">
+        <v>4.1578921760785548</v>
+      </c>
+      <c r="J192" s="21">
+        <v>1144.7838142837227</v>
       </c>
       <c r="L192" s="9">
         <v>49.22</v>
@@ -17673,11 +17680,11 @@
         <v>1159.3976959032311</v>
       </c>
       <c r="H193" s="8"/>
-      <c r="I193" s="8">
-        <v>4.0028437698767121</v>
-      </c>
-      <c r="J193" s="8">
-        <v>1152.7086110963985</v>
+      <c r="I193" s="21">
+        <v>3.3816946619271704</v>
+      </c>
+      <c r="J193" s="21">
+        <v>1135.79027035883</v>
       </c>
       <c r="L193" s="9">
         <v>49.22</v>
@@ -17763,11 +17770,11 @@
         <v>1169.7209015831236</v>
       </c>
       <c r="H194" s="8"/>
-      <c r="I194" s="8">
-        <v>4.1195034621981002</v>
-      </c>
-      <c r="J194" s="8">
-        <v>1150.5898122541521</v>
+      <c r="I194" s="21">
+        <v>3.3734002463061081</v>
+      </c>
+      <c r="J194" s="21">
+        <v>1135.8442300905076</v>
       </c>
       <c r="L194" s="9">
         <v>49.22</v>
@@ -17853,11 +17860,11 @@
         <v>36</v>
       </c>
       <c r="H195" s="8"/>
-      <c r="I195" s="8">
-        <v>4.2332145033151249</v>
-      </c>
-      <c r="J195" s="8">
-        <v>1165.9855526603546</v>
+      <c r="I195" s="21">
+        <v>3.4408163263041835</v>
+      </c>
+      <c r="J195" s="21">
+        <v>1145.6641098577052</v>
       </c>
       <c r="L195" s="9">
         <v>49.22</v>
@@ -17943,11 +17950,11 @@
         <v>36</v>
       </c>
       <c r="H196" s="8"/>
-      <c r="I196" s="8">
-        <v>1.8367966286978863</v>
-      </c>
-      <c r="J196" s="8">
-        <v>1163.5662468637438</v>
+      <c r="I196" s="21">
+        <v>1.1646249036503207</v>
+      </c>
+      <c r="J196" s="21">
+        <v>1142.8479161724401</v>
       </c>
       <c r="L196" s="9">
         <v>49.22</v>
@@ -18033,11 +18040,11 @@
         <v>36</v>
       </c>
       <c r="H197" s="8"/>
-      <c r="I197" s="8">
-        <v>2.7481201729865532</v>
-      </c>
-      <c r="J197" s="8">
-        <v>1151.8298132859595</v>
+      <c r="I197" s="21">
+        <v>1.6979006688353699</v>
+      </c>
+      <c r="J197" s="21">
+        <v>1130.2866090118655</v>
       </c>
       <c r="L197" s="9">
         <v>49.22</v>
@@ -18123,11 +18130,11 @@
         <v>1163.2499061372537</v>
       </c>
       <c r="H198" s="8"/>
-      <c r="I198" s="8">
-        <v>3.9987564488880309</v>
-      </c>
-      <c r="J198" s="8">
-        <v>1164.2052532983089</v>
+      <c r="I198" s="21">
+        <v>3.4318143063618827</v>
+      </c>
+      <c r="J198" s="21">
+        <v>1146.7314102777927</v>
       </c>
       <c r="L198" s="9">
         <v>49.22</v>
@@ -18213,11 +18220,11 @@
         <v>36</v>
       </c>
       <c r="H199" s="8"/>
-      <c r="I199" s="8">
-        <v>4.5526705414802251</v>
-      </c>
-      <c r="J199" s="8">
-        <v>1155.4482045870582</v>
+      <c r="I199" s="21">
+        <v>3.637541837532428</v>
+      </c>
+      <c r="J199" s="21">
+        <v>1136.4873916437464</v>
       </c>
       <c r="L199" s="9">
         <v>49.22</v>
@@ -18303,11 +18310,11 @@
         <v>36</v>
       </c>
       <c r="H200" s="8"/>
-      <c r="I200" s="8">
-        <v>3.451077140943223</v>
-      </c>
-      <c r="J200" s="8">
-        <v>1145.6597229525232</v>
+      <c r="I200" s="21">
+        <v>2.7319528808768787</v>
+      </c>
+      <c r="J200" s="21">
+        <v>1128.1007374143799</v>
       </c>
       <c r="L200" s="9">
         <v>49.22</v>
@@ -18393,11 +18400,11 @@
         <v>1146.0911292758537</v>
       </c>
       <c r="H201" s="8"/>
-      <c r="I201" s="8">
-        <v>2.5824274475804323</v>
-      </c>
-      <c r="J201" s="8">
-        <v>1150.6756050750723</v>
+      <c r="I201" s="21">
+        <v>1.920569169765205</v>
+      </c>
+      <c r="J201" s="21">
+        <v>1131.4280300188875</v>
       </c>
       <c r="L201" s="9">
         <v>49.22</v>
@@ -18483,11 +18490,11 @@
         <v>36</v>
       </c>
       <c r="H202" s="8"/>
-      <c r="I202" s="8">
-        <v>4.0889067240975585</v>
-      </c>
-      <c r="J202" s="8">
-        <v>1163.9562921558011</v>
+      <c r="I202" s="21">
+        <v>3.279322949466458</v>
+      </c>
+      <c r="J202" s="21">
+        <v>1142.3373707859266</v>
       </c>
       <c r="L202" s="9">
         <v>49.22</v>
@@ -18573,11 +18580,11 @@
         <v>1163.793165329776</v>
       </c>
       <c r="H203" s="8"/>
-      <c r="I203" s="8">
-        <v>4.0226324095134345</v>
-      </c>
-      <c r="J203" s="8">
-        <v>1160.9418292111836</v>
+      <c r="I203" s="21">
+        <v>3.4714584051676098</v>
+      </c>
+      <c r="J203" s="21">
+        <v>1143.7326286642067</v>
       </c>
       <c r="L203" s="9">
         <v>49.22</v>
@@ -18663,11 +18670,11 @@
         <v>36</v>
       </c>
       <c r="H204" s="8"/>
-      <c r="I204" s="8">
-        <v>4.3780882683165459</v>
-      </c>
-      <c r="J204" s="8">
-        <v>1150.6676886559703</v>
+      <c r="I204" s="21">
+        <v>3.7200701218288081</v>
+      </c>
+      <c r="J204" s="21">
+        <v>1135.531926500707</v>
       </c>
       <c r="L204" s="9">
         <v>49.22</v>
@@ -18753,11 +18760,11 @@
         <v>1155.5187760742283</v>
       </c>
       <c r="H205" s="8"/>
-      <c r="I205" s="8">
-        <v>3.7104185100962255</v>
-      </c>
-      <c r="J205" s="8">
-        <v>1158.2729780875698</v>
+      <c r="I205" s="21">
+        <v>3.198855239978009</v>
+      </c>
+      <c r="J205" s="21">
+        <v>1143.5812308279299</v>
       </c>
       <c r="L205" s="9">
         <v>49.22</v>
@@ -18843,11 +18850,11 @@
         <v>1161.6884250960766</v>
       </c>
       <c r="H206" s="8"/>
-      <c r="I206" s="8">
-        <v>3.9789988473990867</v>
-      </c>
-      <c r="J206" s="8">
-        <v>1163.4275074837369</v>
+      <c r="I206" s="21">
+        <v>3.5157317741631893</v>
+      </c>
+      <c r="J206" s="21">
+        <v>1146.0314432144189</v>
       </c>
       <c r="L206" s="9">
         <v>49.22</v>
@@ -18933,11 +18940,11 @@
         <v>36</v>
       </c>
       <c r="H207" s="8"/>
-      <c r="I207" s="8">
-        <v>3.1109564229488491</v>
-      </c>
-      <c r="J207" s="8">
-        <v>1158.1357204034325</v>
+      <c r="I207" s="21">
+        <v>2.554129678297393</v>
+      </c>
+      <c r="J207" s="21">
+        <v>1140.3734197742654</v>
       </c>
       <c r="L207" s="9">
         <v>49.22</v>
@@ -19023,11 +19030,11 @@
         <v>36</v>
       </c>
       <c r="H208" s="8"/>
-      <c r="I208" s="8">
-        <v>3.7448362263137014</v>
-      </c>
-      <c r="J208" s="8">
-        <v>1152.7798273287667</v>
+      <c r="I208" s="21">
+        <v>3.0476702307890982</v>
+      </c>
+      <c r="J208" s="21">
+        <v>1134.3269351329941</v>
       </c>
       <c r="L208" s="9">
         <v>49.22</v>
@@ -19113,11 +19120,11 @@
         <v>1166.7417472439388</v>
       </c>
       <c r="H209" s="8"/>
-      <c r="I209" s="8">
-        <v>4.0683101263213786</v>
-      </c>
-      <c r="J209" s="8">
-        <v>1164.7027701687184</v>
+      <c r="I209" s="21">
+        <v>3.4393455604826464</v>
+      </c>
+      <c r="J209" s="21">
+        <v>1144.3630572567142</v>
       </c>
       <c r="L209" s="9">
         <v>49.22</v>
@@ -19203,11 +19210,11 @@
         <v>1144.2520176640273</v>
       </c>
       <c r="H210" s="8"/>
-      <c r="I210" s="8">
-        <v>3.2945525713913284</v>
-      </c>
-      <c r="J210" s="8">
-        <v>1149.3073764132246</v>
+      <c r="I210" s="21">
+        <v>2.7247694374570735</v>
+      </c>
+      <c r="J210" s="21">
+        <v>1132.9213721094013</v>
       </c>
       <c r="L210" s="9">
         <v>49.22</v>
@@ -19293,11 +19300,11 @@
         <v>36</v>
       </c>
       <c r="H211" s="8"/>
-      <c r="I211" s="8">
-        <v>3.7751602585899029</v>
-      </c>
-      <c r="J211" s="8">
-        <v>1149.6495663374287</v>
+      <c r="I211" s="21">
+        <v>3.080617310926673</v>
+      </c>
+      <c r="J211" s="21">
+        <v>1132.5704627230111</v>
       </c>
       <c r="L211" s="9">
         <v>49.22</v>
@@ -19383,11 +19390,11 @@
         <v>1156.9860432567084</v>
       </c>
       <c r="H212" s="8"/>
-      <c r="I212" s="8">
-        <v>3.6771093478218901</v>
-      </c>
-      <c r="J212" s="8">
-        <v>1162.6520817224371</v>
+      <c r="I212" s="21">
+        <v>3.254524212168846</v>
+      </c>
+      <c r="J212" s="21">
+        <v>1145.2353533986036</v>
       </c>
       <c r="L212" s="9">
         <v>49.22</v>
@@ -19473,11 +19480,11 @@
         <v>36</v>
       </c>
       <c r="H213" s="8"/>
-      <c r="I213" s="8">
-        <v>3.9124416653730947</v>
-      </c>
-      <c r="J213" s="8">
-        <v>1148.5749112435954</v>
+      <c r="I213" s="21">
+        <v>3.0124252302204724</v>
+      </c>
+      <c r="J213" s="21">
+        <v>1129.8552550927016</v>
       </c>
       <c r="L213" s="9">
         <v>49.22</v>
@@ -19563,11 +19570,11 @@
         <v>36</v>
       </c>
       <c r="H214" s="8"/>
-      <c r="I214" s="8">
-        <v>4.0260858078381183</v>
-      </c>
-      <c r="J214" s="8">
-        <v>1143.337701664344</v>
+      <c r="I214" s="21">
+        <v>3.0245055886753605</v>
+      </c>
+      <c r="J214" s="21">
+        <v>1124.6688365410257</v>
       </c>
       <c r="L214" s="9">
         <v>49.22</v>
@@ -19653,11 +19660,11 @@
         <v>1160.7359045146204</v>
       </c>
       <c r="H215" s="8"/>
-      <c r="I215" s="8">
-        <v>3.023774526133284</v>
-      </c>
-      <c r="J215" s="8">
-        <v>1152.0292650561641</v>
+      <c r="I215" s="21">
+        <v>2.1235926809848209</v>
+      </c>
+      <c r="J215" s="21">
+        <v>1131.6835791000706</v>
       </c>
       <c r="L215" s="9">
         <v>49.22</v>
@@ -19743,11 +19750,11 @@
         <v>1154.885148824847</v>
       </c>
       <c r="H216" s="8"/>
-      <c r="I216" s="8">
-        <v>3.1028225214591245</v>
-      </c>
-      <c r="J216" s="8">
-        <v>1158.6542369572157</v>
+      <c r="I216" s="21">
+        <v>2.5127528870021116</v>
+      </c>
+      <c r="J216" s="21">
+        <v>1141.1602756402267</v>
       </c>
       <c r="L216" s="9">
         <v>49.22</v>
@@ -19833,11 +19840,11 @@
         <v>36</v>
       </c>
       <c r="H217" s="8"/>
-      <c r="I217" s="8">
-        <v>4.5718905759944377</v>
-      </c>
-      <c r="J217" s="8">
-        <v>1162.8778387006864</v>
+      <c r="I217" s="21">
+        <v>4.2454026678391052</v>
+      </c>
+      <c r="J217" s="21">
+        <v>1149.155677702767</v>
       </c>
       <c r="L217" s="9">
         <v>49.3</v>
@@ -19923,11 +19930,11 @@
         <v>36</v>
       </c>
       <c r="H218" s="8"/>
-      <c r="I218" s="8">
-        <v>3.1058320320673936</v>
-      </c>
-      <c r="J218" s="8">
-        <v>1155.8264521692415</v>
+      <c r="I218" s="21">
+        <v>2.9130401826921535</v>
+      </c>
+      <c r="J218" s="21">
+        <v>1146.570019927904</v>
       </c>
       <c r="L218" s="9">
         <v>49.3</v>
@@ -20013,11 +20020,11 @@
         <v>1153.8912643481976</v>
       </c>
       <c r="H219" s="8"/>
-      <c r="I219" s="8">
-        <v>3.153331295107705</v>
-      </c>
-      <c r="J219" s="8">
-        <v>1160.2086337482149</v>
+      <c r="I219" s="21">
+        <v>3.2075501336559995</v>
+      </c>
+      <c r="J219" s="21">
+        <v>1152.3502585284516</v>
       </c>
       <c r="L219" s="9">
         <v>49.3</v>
@@ -20103,11 +20110,11 @@
         <v>36</v>
       </c>
       <c r="H220" s="8"/>
-      <c r="I220" s="8">
-        <v>3.2265218838128007</v>
-      </c>
-      <c r="J220" s="8">
-        <v>1160.5414933703009</v>
+      <c r="I220" s="21">
+        <v>2.9874100470943752</v>
+      </c>
+      <c r="J220" s="21">
+        <v>1149.9626540916784</v>
       </c>
       <c r="L220" s="9">
         <v>49.3</v>
@@ -20193,11 +20200,11 @@
         <v>36</v>
       </c>
       <c r="H221" s="8"/>
-      <c r="I221" s="8">
-        <v>2.5544620806375775</v>
-      </c>
-      <c r="J221" s="8">
-        <v>1149.7545665578527</v>
+      <c r="I221" s="21">
+        <v>2.3338363955568902</v>
+      </c>
+      <c r="J221" s="21">
+        <v>1139.4953122664067</v>
       </c>
       <c r="L221" s="9">
         <v>49.3</v>
@@ -20283,11 +20290,11 @@
         <v>1204.6622447498339</v>
       </c>
       <c r="H222" s="8"/>
-      <c r="I222" s="8">
-        <v>6.0972686471120525</v>
-      </c>
-      <c r="J222" s="8">
-        <v>1170.0137499499899</v>
+      <c r="I222" s="21">
+        <v>6.4878325964997821</v>
+      </c>
+      <c r="J222" s="21">
+        <v>1161.4746036169656</v>
       </c>
       <c r="L222" s="9">
         <v>49.3</v>
@@ -20373,11 +20380,11 @@
         <v>36</v>
       </c>
       <c r="H223" s="8"/>
-      <c r="I223" s="8">
-        <v>3.2910798527756882</v>
-      </c>
-      <c r="J223" s="8">
-        <v>1169.1382431455731</v>
+      <c r="I223" s="21">
+        <v>3.4523561975947032</v>
+      </c>
+      <c r="J223" s="21">
+        <v>1158.7450848682863</v>
       </c>
       <c r="L223" s="9">
         <v>49.3</v>
@@ -20463,11 +20470,11 @@
         <v>36</v>
       </c>
       <c r="H224" s="8"/>
-      <c r="I224" s="8">
-        <v>3.7146384522308971</v>
-      </c>
-      <c r="J224" s="8">
-        <v>1151.338660527997</v>
+      <c r="I224" s="21">
+        <v>3.368609828410861</v>
+      </c>
+      <c r="J224" s="21">
+        <v>1143.7347552306746</v>
       </c>
       <c r="L224" s="9">
         <v>49.3</v>
@@ -20553,11 +20560,11 @@
         <v>1173.9412852512855</v>
       </c>
       <c r="H225" s="8"/>
-      <c r="I225" s="8">
-        <v>4.060957092217464</v>
-      </c>
-      <c r="J225" s="8">
-        <v>1159.7733173645584</v>
+      <c r="I225" s="21">
+        <v>4.2153521985522744</v>
+      </c>
+      <c r="J225" s="21">
+        <v>1150.8862853143321</v>
       </c>
       <c r="L225" s="9">
         <v>49.3</v>
@@ -20643,11 +20650,11 @@
         <v>36</v>
       </c>
       <c r="H226" s="8"/>
-      <c r="I226" s="8">
-        <v>6.1644414556737424</v>
-      </c>
-      <c r="J226" s="8">
-        <v>1171.402654075215</v>
+      <c r="I226" s="21">
+        <v>6.7703179222546126</v>
+      </c>
+      <c r="J226" s="21">
+        <v>1164.3620773075686</v>
       </c>
       <c r="L226" s="9">
         <v>49.3</v>
@@ -20733,11 +20740,11 @@
         <v>36</v>
       </c>
       <c r="H227" s="8"/>
-      <c r="I227" s="8">
-        <v>2.7864044529254457</v>
-      </c>
-      <c r="J227" s="8">
-        <v>1146.7418464914504</v>
+      <c r="I227" s="21">
+        <v>2.4322837646330342</v>
+      </c>
+      <c r="J227" s="21">
+        <v>1136.4764918854335</v>
       </c>
       <c r="L227" s="9">
         <v>49.3</v>
@@ -20823,11 +20830,11 @@
         <v>1155.7270125509681</v>
       </c>
       <c r="H228" s="8"/>
-      <c r="I228" s="8">
-        <v>3.3400615383280226</v>
-      </c>
-      <c r="J228" s="8">
-        <v>1170.0068026872777</v>
+      <c r="I228" s="21">
+        <v>3.6366815405498762</v>
+      </c>
+      <c r="J228" s="21">
+        <v>1161.4550355569688</v>
       </c>
       <c r="L228" s="9">
         <v>49.3</v>
@@ -20913,11 +20920,11 @@
         <v>36</v>
       </c>
       <c r="H229" s="8"/>
-      <c r="I229" s="8">
-        <v>3.9278428875879605</v>
-      </c>
-      <c r="J229" s="8">
-        <v>1156.3465454717398</v>
+      <c r="I229" s="21">
+        <v>3.9304922930354067</v>
+      </c>
+      <c r="J229" s="21">
+        <v>1147.2656937825293</v>
       </c>
       <c r="L229" s="9">
         <v>49.3</v>
@@ -21003,11 +21010,11 @@
         <v>36</v>
       </c>
       <c r="H230" s="8"/>
-      <c r="I230" s="8">
-        <v>5.6513290664595672</v>
-      </c>
-      <c r="J230" s="8">
-        <v>1177.7435560132037</v>
+      <c r="I230" s="21">
+        <v>5.8923197297293122</v>
+      </c>
+      <c r="J230" s="21">
+        <v>1170.1136394098423</v>
       </c>
       <c r="L230" s="9">
         <v>49.3</v>
@@ -21093,11 +21100,11 @@
         <v>1203.2031329896649</v>
       </c>
       <c r="H231" s="8"/>
-      <c r="I231" s="8">
-        <v>5.6331892504172529</v>
-      </c>
-      <c r="J231" s="8">
-        <v>1179.8809073205919</v>
+      <c r="I231" s="21">
+        <v>6.0282406984082577</v>
+      </c>
+      <c r="J231" s="21">
+        <v>1169.059377186127</v>
       </c>
       <c r="L231" s="9">
         <v>49.3</v>
@@ -21183,11 +21190,11 @@
         <v>1145.580463318272</v>
       </c>
       <c r="H232" s="8"/>
-      <c r="I232" s="8">
-        <v>2.392399206175515</v>
-      </c>
-      <c r="J232" s="8">
-        <v>1156.5314283348293</v>
+      <c r="I232" s="21">
+        <v>2.5464424012796592</v>
+      </c>
+      <c r="J232" s="21">
+        <v>1147.3766753738641</v>
       </c>
       <c r="L232" s="9">
         <v>49.3</v>
@@ -21273,11 +21280,11 @@
         <v>1145.580463318272</v>
       </c>
       <c r="H233" s="8"/>
-      <c r="I233" s="8">
-        <v>2.392399206175515</v>
-      </c>
-      <c r="J233" s="8">
-        <v>1156.5314283348293</v>
+      <c r="I233" s="21">
+        <v>2.5464424012796592</v>
+      </c>
+      <c r="J233" s="21">
+        <v>1147.3766753738641</v>
       </c>
       <c r="L233" s="9">
         <v>49.3</v>
@@ -21363,11 +21370,11 @@
         <v>1166.3611134394951</v>
       </c>
       <c r="H234" s="8"/>
-      <c r="I234" s="8">
-        <v>3.4189021701049249</v>
-      </c>
-      <c r="J234" s="8">
-        <v>1152.2816431520112</v>
+      <c r="I234" s="21">
+        <v>3.3683886307036914</v>
+      </c>
+      <c r="J234" s="21">
+        <v>1144.0998248651838</v>
       </c>
       <c r="L234" s="9">
         <v>49.3</v>
@@ -21453,11 +21460,11 @@
         <v>1146.6004155940559</v>
       </c>
       <c r="H235" s="8"/>
-      <c r="I235" s="8">
-        <v>3.2641411627617813</v>
-      </c>
-      <c r="J235" s="8">
-        <v>1145.2847207012392</v>
+      <c r="I235" s="21">
+        <v>3.1227469881548231</v>
+      </c>
+      <c r="J235" s="21">
+        <v>1138.1123820357927</v>
       </c>
       <c r="L235" s="9">
         <v>49.3</v>
@@ -21543,11 +21550,11 @@
         <v>1160.2988090151343</v>
       </c>
       <c r="H236" s="8"/>
-      <c r="I236" s="8">
-        <v>2.7394087850925679</v>
-      </c>
-      <c r="J236" s="8">
-        <v>1160.0920341393723</v>
+      <c r="I236" s="21">
+        <v>2.5725604217145595</v>
+      </c>
+      <c r="J236" s="21">
+        <v>1147.6327090677883</v>
       </c>
       <c r="L236" s="9">
         <v>49.3</v>
@@ -21633,11 +21640,11 @@
         <v>1162.9936720748278</v>
       </c>
       <c r="H237" s="8"/>
-      <c r="I237" s="8">
-        <v>3.1665632321772534</v>
-      </c>
-      <c r="J237" s="8">
-        <v>1151.891238174579</v>
+      <c r="I237" s="21">
+        <v>3.0909025194090596</v>
+      </c>
+      <c r="J237" s="21">
+        <v>1145.4712284905911</v>
       </c>
       <c r="L237" s="9">
         <v>49.3</v>
@@ -21723,11 +21730,11 @@
         <v>1133.8817780514573</v>
       </c>
       <c r="H238" s="8"/>
-      <c r="I238" s="8">
-        <v>2.2504139044893208</v>
-      </c>
-      <c r="J238" s="8">
-        <v>1151.078361174335</v>
+      <c r="I238" s="21">
+        <v>2.1330939159833804</v>
+      </c>
+      <c r="J238" s="21">
+        <v>1143.0084388683435</v>
       </c>
       <c r="L238" s="9">
         <v>49.3</v>
@@ -21813,11 +21820,11 @@
         <v>1150.2325817471378</v>
       </c>
       <c r="H239" s="8"/>
-      <c r="I239" s="8">
-        <v>2.6194507518348189</v>
-      </c>
-      <c r="J239" s="8">
-        <v>1159.8439410147655</v>
+      <c r="I239" s="21">
+        <v>2.6247521620393961</v>
+      </c>
+      <c r="J239" s="21">
+        <v>1149.5082195454711</v>
       </c>
       <c r="L239" s="9">
         <v>49.3</v>
@@ -21903,11 +21910,11 @@
         <v>1169.4665776196789</v>
       </c>
       <c r="H240" s="8"/>
-      <c r="I240" s="8">
-        <v>3.8050064180501657</v>
-      </c>
-      <c r="J240" s="8">
-        <v>1157.9533384718984</v>
+      <c r="I240" s="21">
+        <v>4.0667729226685303</v>
+      </c>
+      <c r="J240" s="21">
+        <v>1149.2761279444262</v>
       </c>
       <c r="L240" s="9">
         <v>49.3</v>
@@ -21993,11 +22000,11 @@
         <v>1149.0349133145173</v>
       </c>
       <c r="H241" s="8"/>
-      <c r="I241" s="8">
-        <v>2.720592411284052</v>
-      </c>
-      <c r="J241" s="8">
-        <v>1166.6514970435494</v>
+      <c r="I241" s="21">
+        <v>2.9711903488027076</v>
+      </c>
+      <c r="J241" s="21">
+        <v>1155.564489008626</v>
       </c>
       <c r="L241" s="9">
         <v>49.3</v>
@@ -22083,11 +22090,11 @@
         <v>36</v>
       </c>
       <c r="H242" s="8"/>
-      <c r="I242" s="8">
-        <v>5.0392658465261597</v>
-      </c>
-      <c r="J242" s="8">
-        <v>1169.8795460219778</v>
+      <c r="I242" s="21">
+        <v>5.9283721245476038</v>
+      </c>
+      <c r="J242" s="21">
+        <v>1162.1436645767153</v>
       </c>
       <c r="L242" s="9">
         <v>49.3</v>
@@ -22173,11 +22180,11 @@
         <v>1139.0738565966153</v>
       </c>
       <c r="H243" s="8"/>
-      <c r="I243" s="8">
-        <v>1.7033588016147405</v>
-      </c>
-      <c r="J243" s="8">
-        <v>1157.087954087059</v>
+      <c r="I243" s="21">
+        <v>1.9234339184215585</v>
+      </c>
+      <c r="J243" s="21">
+        <v>1145.1208589880714</v>
       </c>
       <c r="L243" s="9">
         <v>49.3</v>
@@ -22263,11 +22270,11 @@
         <v>1140.0402095545842</v>
       </c>
       <c r="H244" s="8"/>
-      <c r="I244" s="8">
-        <v>2.4592557476398653</v>
-      </c>
-      <c r="J244" s="8">
-        <v>1165.9200308220486</v>
+      <c r="I244" s="21">
+        <v>3.0051549202913392</v>
+      </c>
+      <c r="J244" s="21">
+        <v>1155.6383333280041</v>
       </c>
       <c r="L244" s="9">
         <v>49.3</v>
@@ -22353,11 +22360,11 @@
         <v>1143.3436746468083</v>
       </c>
       <c r="H245" s="8"/>
-      <c r="I245" s="8">
-        <v>2.329649470817575</v>
-      </c>
-      <c r="J245" s="8">
-        <v>1152.9325890141865</v>
+      <c r="I245" s="21">
+        <v>2.3241322874625538</v>
+      </c>
+      <c r="J245" s="21">
+        <v>1142.586988669967</v>
       </c>
       <c r="L245" s="9">
         <v>49.3</v>
@@ -22443,11 +22450,11 @@
         <v>36</v>
       </c>
       <c r="H246" s="8"/>
-      <c r="I246" s="8">
-        <v>3.0793198450735844</v>
-      </c>
-      <c r="J246" s="8">
-        <v>1159.6858872365258</v>
+      <c r="I246" s="21">
+        <v>3.4369516312246233</v>
+      </c>
+      <c r="J246" s="21">
+        <v>1150.0439542618983</v>
       </c>
       <c r="L246" s="9">
         <v>49.3</v>
@@ -22533,11 +22540,11 @@
         <v>1151.7697537793847</v>
       </c>
       <c r="H247" s="8"/>
-      <c r="I247" s="8">
-        <v>2.7694507237859582</v>
-      </c>
-      <c r="J247" s="8">
-        <v>1169.3617836698106</v>
+      <c r="I247" s="21">
+        <v>3.1487213098780984</v>
+      </c>
+      <c r="J247" s="21">
+        <v>1159.7503137539463</v>
       </c>
       <c r="L247" s="9">
         <v>49.3</v>
@@ -22623,11 +22630,11 @@
         <v>1166.3109217828705</v>
       </c>
       <c r="H248" s="8"/>
-      <c r="I248" s="8">
-        <v>3.2666475245571505</v>
-      </c>
-      <c r="J248" s="8">
-        <v>1164.7797155884359</v>
+      <c r="I248" s="21">
+        <v>3.6267224330313184</v>
+      </c>
+      <c r="J248" s="21">
+        <v>1155.1176889298717</v>
       </c>
       <c r="L248" s="9">
         <v>49.3</v>
@@ -22713,11 +22720,11 @@
         <v>1157.5013884957721</v>
       </c>
       <c r="H249" s="8"/>
-      <c r="I249" s="8">
-        <v>3.1513093611357341</v>
-      </c>
-      <c r="J249" s="8">
-        <v>1165.0824349053332</v>
+      <c r="I249" s="21">
+        <v>3.5571737652395967</v>
+      </c>
+      <c r="J249" s="21">
+        <v>1156.0112692630987</v>
       </c>
       <c r="L249" s="9">
         <v>49.3</v>
@@ -22803,11 +22810,11 @@
         <v>1141.1754040090418</v>
       </c>
       <c r="H250" s="8"/>
-      <c r="I250" s="8">
-        <v>2.4479151460525159</v>
-      </c>
-      <c r="J250" s="8">
-        <v>1168.1587672640039</v>
+      <c r="I250" s="21">
+        <v>2.7624426569920679</v>
+      </c>
+      <c r="J250" s="21">
+        <v>1158.5642384267944</v>
       </c>
       <c r="L250" s="9">
         <v>49.3</v>
@@ -22893,11 +22900,11 @@
         <v>1149.1816236478076</v>
       </c>
       <c r="H251" s="8"/>
-      <c r="I251" s="8">
-        <v>2.8533971467043315</v>
-      </c>
-      <c r="J251" s="8">
-        <v>1161.9298694764507</v>
+      <c r="I251" s="21">
+        <v>3.2280404728040075</v>
+      </c>
+      <c r="J251" s="21">
+        <v>1151.7681454349288</v>
       </c>
       <c r="L251" s="9">
         <v>49.3</v>
@@ -22983,11 +22990,11 @@
         <v>1138.0292614946075</v>
       </c>
       <c r="H252" s="8"/>
-      <c r="I252" s="8">
-        <v>2.741368524758812</v>
-      </c>
-      <c r="J252" s="8">
-        <v>1155.7498411027464</v>
+      <c r="I252" s="21">
+        <v>3.0972073790777266</v>
+      </c>
+      <c r="J252" s="21">
+        <v>1146.4662857025628</v>
       </c>
       <c r="L252" s="9">
         <v>49.3</v>
@@ -23073,11 +23080,11 @@
         <v>1142.2657821751272</v>
       </c>
       <c r="H253" s="8"/>
-      <c r="I253" s="8">
-        <v>2.5132600046057014</v>
-      </c>
-      <c r="J253" s="8">
-        <v>1169.528696805399</v>
+      <c r="I253" s="21">
+        <v>2.9435127312462726</v>
+      </c>
+      <c r="J253" s="21">
+        <v>1158.6433569776532</v>
       </c>
       <c r="L253" s="9">
         <v>49.3</v>
@@ -23163,11 +23170,11 @@
         <v>1187.9336565471399</v>
       </c>
       <c r="H254" s="8"/>
-      <c r="I254" s="8">
-        <v>4.9552439621665982</v>
-      </c>
-      <c r="J254" s="8">
-        <v>1181.2691613626534</v>
+      <c r="I254" s="21">
+        <v>5.636311131182218</v>
+      </c>
+      <c r="J254" s="21">
+        <v>1171.7922056188922</v>
       </c>
       <c r="L254" s="9">
         <v>49.3</v>
@@ -23253,11 +23260,11 @@
         <v>1145.2021902239085</v>
       </c>
       <c r="H255" s="8"/>
-      <c r="I255" s="8">
-        <v>2.5151458245794061</v>
-      </c>
-      <c r="J255" s="8">
-        <v>1155.4681671007552</v>
+      <c r="I255" s="21">
+        <v>2.7264311184098737</v>
+      </c>
+      <c r="J255" s="21">
+        <v>1146.2426970591885</v>
       </c>
       <c r="L255" s="9">
         <v>49.3</v>
@@ -23343,11 +23350,11 @@
         <v>1163.1014535311447</v>
       </c>
       <c r="H256" s="8"/>
-      <c r="I256" s="8">
-        <v>3.3870213283532458</v>
-      </c>
-      <c r="J256" s="8">
-        <v>1175.6501531949414</v>
+      <c r="I256" s="21">
+        <v>3.7918474673505784</v>
+      </c>
+      <c r="J256" s="21">
+        <v>1164.6354440742161</v>
       </c>
       <c r="L256" s="9">
         <v>49.3</v>
@@ -23433,11 +23440,11 @@
         <v>36</v>
       </c>
       <c r="H257" s="8"/>
-      <c r="I257" s="8">
-        <v>4.6420509076593177</v>
-      </c>
-      <c r="J257" s="8">
-        <v>1178.398873987946</v>
+      <c r="I257" s="21">
+        <v>4.9855982865991777</v>
+      </c>
+      <c r="J257" s="21">
+        <v>1168.7992907412408</v>
       </c>
       <c r="L257" s="9">
         <v>49.3</v>
@@ -23523,11 +23530,11 @@
         <v>36</v>
       </c>
       <c r="H258" s="8"/>
-      <c r="I258" s="8">
-        <v>3.0422628524090705</v>
-      </c>
-      <c r="J258" s="8">
-        <v>1171.5928807391022</v>
+      <c r="I258" s="21">
+        <v>3.2363524595875006</v>
+      </c>
+      <c r="J258" s="21">
+        <v>1161.3888006465595</v>
       </c>
       <c r="L258" s="9">
         <v>49.3</v>
@@ -23613,11 +23620,11 @@
         <v>36</v>
       </c>
       <c r="H259" s="8"/>
-      <c r="I259" s="8">
-        <v>6.2152178699949658</v>
-      </c>
-      <c r="J259" s="8">
-        <v>1162.031824461671</v>
+      <c r="I259" s="21">
+        <v>6.6011411927515908</v>
+      </c>
+      <c r="J259" s="21">
+        <v>1155.1075018831218</v>
       </c>
       <c r="L259" s="9">
         <v>48.54</v>
@@ -23703,11 +23710,11 @@
         <v>36</v>
       </c>
       <c r="H260" s="8"/>
-      <c r="I260" s="8">
-        <v>7.4744646162305699</v>
-      </c>
-      <c r="J260" s="8">
-        <v>1162.3074326325179</v>
+      <c r="I260" s="21">
+        <v>8.0520949309866339</v>
+      </c>
+      <c r="J260" s="21">
+        <v>1156.334263485347</v>
       </c>
       <c r="L260" s="9">
         <v>48.54</v>
@@ -23793,11 +23800,11 @@
         <v>36</v>
       </c>
       <c r="H261" s="8"/>
-      <c r="I261" s="8">
-        <v>6.2252224074185634</v>
-      </c>
-      <c r="J261" s="8">
-        <v>1164.5135294899942</v>
+      <c r="I261" s="21">
+        <v>6.3416891289851378</v>
+      </c>
+      <c r="J261" s="21">
+        <v>1154.2698620033073</v>
       </c>
       <c r="L261" s="9">
         <v>48.54</v>
@@ -23883,11 +23890,11 @@
         <v>36</v>
       </c>
       <c r="H262" s="8"/>
-      <c r="I262" s="8">
-        <v>7.1287932417447166</v>
-      </c>
-      <c r="J262" s="8">
-        <v>1168.8032470441879</v>
+      <c r="I262" s="21">
+        <v>7.7785407363431389</v>
+      </c>
+      <c r="J262" s="21">
+        <v>1161.4103968580107</v>
       </c>
       <c r="L262" s="9">
         <v>48.54</v>
@@ -23973,11 +23980,11 @@
         <v>1219.7794537721725</v>
       </c>
       <c r="H263" s="8"/>
-      <c r="I263" s="8">
-        <v>7.8603517672103962</v>
-      </c>
-      <c r="J263" s="8">
-        <v>1181.4213471631169</v>
+      <c r="I263" s="21">
+        <v>8.8395447693317362</v>
+      </c>
+      <c r="J263" s="21">
+        <v>1172.7887968752182</v>
       </c>
       <c r="L263" s="9">
         <v>48.54</v>
@@ -24063,11 +24070,11 @@
         <v>36</v>
       </c>
       <c r="H264" s="8"/>
-      <c r="I264" s="8">
-        <v>3.7426479182960861</v>
-      </c>
-      <c r="J264" s="8">
-        <v>1151.269390873902</v>
+      <c r="I264" s="21">
+        <v>3.6562445123698488</v>
+      </c>
+      <c r="J264" s="21">
+        <v>1141.3874205511315</v>
       </c>
       <c r="L264" s="9">
         <v>48.54</v>
@@ -24153,11 +24160,11 @@
         <v>1158.0996760350909</v>
       </c>
       <c r="H265" s="8"/>
-      <c r="I265" s="8">
-        <v>3.4575737111891733</v>
-      </c>
-      <c r="J265" s="8">
-        <v>1149.7025751165188</v>
+      <c r="I265" s="21">
+        <v>3.6116602504535216</v>
+      </c>
+      <c r="J265" s="21">
+        <v>1141.2709672534063</v>
       </c>
       <c r="L265" s="9">
         <v>48.54</v>
@@ -24243,11 +24250,11 @@
         <v>1155.7017623231377</v>
       </c>
       <c r="H266" s="8"/>
-      <c r="I266" s="8">
-        <v>3.3250243151322749</v>
-      </c>
-      <c r="J266" s="8">
-        <v>1152.1379023586755</v>
+      <c r="I266" s="21">
+        <v>3.5771916843190716</v>
+      </c>
+      <c r="J266" s="21">
+        <v>1144.7433668548283</v>
       </c>
       <c r="L266" s="9">
         <v>48.54</v>
@@ -24333,11 +24340,11 @@
         <v>1153.8938608004664</v>
       </c>
       <c r="H267" s="8"/>
-      <c r="I267" s="8">
-        <v>3.0915258239400032</v>
-      </c>
-      <c r="J267" s="8">
-        <v>1152.5080230681572</v>
+      <c r="I267" s="21">
+        <v>3.2667772433131255</v>
+      </c>
+      <c r="J267" s="21">
+        <v>1144.0625922338891</v>
       </c>
       <c r="L267" s="9">
         <v>48.54</v>
@@ -24423,11 +24430,11 @@
         <v>1145.7640379069944</v>
       </c>
       <c r="H268" s="8"/>
-      <c r="I268" s="8">
-        <v>3.1660637705844898</v>
-      </c>
-      <c r="J268" s="8">
-        <v>1160.1023100768571</v>
+      <c r="I268" s="21">
+        <v>3.7681730551384014</v>
+      </c>
+      <c r="J268" s="21">
+        <v>1151.3987452530016</v>
       </c>
       <c r="L268" s="9">
         <v>48.54</v>
@@ -24513,11 +24520,11 @@
         <v>1173.1664089181313</v>
       </c>
       <c r="H269" s="8"/>
-      <c r="I269" s="8">
-        <v>4.6607178648450258</v>
-      </c>
-      <c r="J269" s="8">
-        <v>1162.9323835470275</v>
+      <c r="I269" s="21">
+        <v>5.3242041301888996</v>
+      </c>
+      <c r="J269" s="21">
+        <v>1158.6030584867585</v>
       </c>
       <c r="L269" s="9">
         <v>48.54</v>
@@ -24603,11 +24610,11 @@
         <v>1153.8332825187472</v>
       </c>
       <c r="H270" s="8"/>
-      <c r="I270" s="8">
-        <v>3.5068516436340538</v>
-      </c>
-      <c r="J270" s="8">
-        <v>1161.2068325659429</v>
+      <c r="I270" s="21">
+        <v>4.1807389928343781</v>
+      </c>
+      <c r="J270" s="21">
+        <v>1154.9431080232901</v>
       </c>
       <c r="L270" s="9">
         <v>48.54</v>
@@ -24693,11 +24700,11 @@
         <v>36</v>
       </c>
       <c r="H271" s="8"/>
-      <c r="I271" s="8">
-        <v>1.9175840699640112</v>
-      </c>
-      <c r="J271" s="8">
-        <v>1141.0093615370333</v>
+      <c r="I271" s="21">
+        <v>2.4125873465246457</v>
+      </c>
+      <c r="J271" s="21">
+        <v>1135.02886521548</v>
       </c>
       <c r="L271" s="9">
         <v>48.54</v>
@@ -24783,11 +24790,11 @@
         <v>1205.3200187252878</v>
       </c>
       <c r="H272" s="8"/>
-      <c r="I272" s="8">
-        <v>6.6998916644251061</v>
-      </c>
-      <c r="J272" s="8">
-        <v>1172.8750605849398</v>
+      <c r="I272" s="21">
+        <v>7.7591050912179416</v>
+      </c>
+      <c r="J272" s="21">
+        <v>1167.724365547019</v>
       </c>
       <c r="L272" s="9">
         <v>48.54</v>
@@ -24873,11 +24880,11 @@
         <v>1141.0645068412241</v>
       </c>
       <c r="H273" s="8"/>
-      <c r="I273" s="8">
-        <v>2.7167616015337543</v>
-      </c>
-      <c r="J273" s="8">
-        <v>1149.4570567895234</v>
+      <c r="I273" s="21">
+        <v>3.0233765013207687</v>
+      </c>
+      <c r="J273" s="21">
+        <v>1142.2026152465276</v>
       </c>
       <c r="L273" s="9">
         <v>48.54</v>
@@ -24963,11 +24970,11 @@
         <v>1174.1069398398699</v>
       </c>
       <c r="H274" s="8"/>
-      <c r="I274" s="8">
-        <v>4.8768467780489964</v>
-      </c>
-      <c r="J274" s="8">
-        <v>1164.0230185597918</v>
+      <c r="I274" s="21">
+        <v>5.7541197739190473</v>
+      </c>
+      <c r="J274" s="21">
+        <v>1157.7512769203995</v>
       </c>
       <c r="L274" s="9">
         <v>48.54</v>
@@ -25053,11 +25060,11 @@
         <v>36</v>
       </c>
       <c r="H275" s="8"/>
-      <c r="I275" s="8">
-        <v>4.2436755751135991</v>
-      </c>
-      <c r="J275" s="8">
-        <v>1154.5126402715891</v>
+      <c r="I275" s="21">
+        <v>5.0907290278548203</v>
+      </c>
+      <c r="J275" s="21">
+        <v>1148.9229758990457</v>
       </c>
       <c r="L275" s="9">
         <v>48.54</v>
@@ -25143,11 +25150,11 @@
         <v>36</v>
       </c>
       <c r="H276" s="8"/>
-      <c r="I276" s="8">
-        <v>1.5954175835555766</v>
-      </c>
-      <c r="J276" s="8">
-        <v>1172.892172472792</v>
+      <c r="I276" s="21">
+        <v>1.1388114364500659</v>
+      </c>
+      <c r="J276" s="21">
+        <v>1155.3724486714218</v>
       </c>
       <c r="L276" s="9">
         <v>50.61</v>
@@ -25233,11 +25240,11 @@
         <v>1174.7392090950848</v>
       </c>
       <c r="H277" s="8"/>
-      <c r="I277" s="8">
-        <v>3.0464210709756294</v>
-      </c>
-      <c r="J277" s="8">
-        <v>1178.2455437037447</v>
+      <c r="I277" s="21">
+        <v>2.7646329854989951</v>
+      </c>
+      <c r="J277" s="21">
+        <v>1162.5684405302027</v>
       </c>
       <c r="L277" s="9">
         <v>50.61</v>
@@ -25323,11 +25330,11 @@
         <v>1170.30422917546</v>
       </c>
       <c r="H278" s="8"/>
-      <c r="I278" s="8">
-        <v>2.5108836275640734</v>
-      </c>
-      <c r="J278" s="8">
-        <v>1182.2861135545147</v>
+      <c r="I278" s="21">
+        <v>2.0120590074270588</v>
+      </c>
+      <c r="J278" s="21">
+        <v>1165.000846011673</v>
       </c>
       <c r="L278" s="9">
         <v>50.61</v>
@@ -25413,11 +25420,11 @@
         <v>1146.7722606367806</v>
       </c>
       <c r="H279" s="8"/>
-      <c r="I279" s="8">
-        <v>1.462306473213026</v>
-      </c>
-      <c r="J279" s="8">
-        <v>1183.229342335261</v>
+      <c r="I279" s="21">
+        <v>1.297571207538958</v>
+      </c>
+      <c r="J279" s="21">
+        <v>1166.0424152625321</v>
       </c>
       <c r="L279" s="9">
         <v>50.61</v>
@@ -25503,11 +25510,11 @@
         <v>1150.8026840720026</v>
       </c>
       <c r="H280" s="8"/>
-      <c r="I280" s="8">
-        <v>1.7001784898266727</v>
-      </c>
-      <c r="J280" s="8">
-        <v>1168.0559010093139</v>
+      <c r="I280" s="21">
+        <v>1.1160643956503868</v>
+      </c>
+      <c r="J280" s="21">
+        <v>1150.9300214144293</v>
       </c>
       <c r="L280" s="9">
         <v>50.61</v>
@@ -25593,11 +25600,11 @@
         <v>1188.009001247065</v>
       </c>
       <c r="H281" s="8"/>
-      <c r="I281" s="8">
-        <v>3.5712659557395448</v>
-      </c>
-      <c r="J281" s="8">
-        <v>1168.5314267784356</v>
+      <c r="I281" s="21">
+        <v>2.9840108473950764</v>
+      </c>
+      <c r="J281" s="21">
+        <v>1155.4973423016897</v>
       </c>
       <c r="L281" s="9">
         <v>50.61</v>
@@ -25683,11 +25690,11 @@
         <v>1164.0150760244687</v>
       </c>
       <c r="H282" s="8"/>
-      <c r="I282" s="8">
-        <v>2.5971827456287571</v>
-      </c>
-      <c r="J282" s="8">
-        <v>1168.6339695224426</v>
+      <c r="I282" s="21">
+        <v>2.0915110400678998</v>
+      </c>
+      <c r="J282" s="21">
+        <v>1154.0446302275514</v>
       </c>
       <c r="L282" s="9">
         <v>50.61</v>
@@ -25773,11 +25780,11 @@
         <v>1184.8787115056048</v>
       </c>
       <c r="H283" s="8"/>
-      <c r="I283" s="8">
-        <v>3.5234005875398573</v>
-      </c>
-      <c r="J283" s="8">
-        <v>1166.8019711846894</v>
+      <c r="I283" s="21">
+        <v>3.0665755067975731</v>
+      </c>
+      <c r="J283" s="21">
+        <v>1155.998972763861</v>
       </c>
       <c r="L283" s="9">
         <v>50.61</v>
@@ -25863,11 +25870,11 @@
         <v>36</v>
       </c>
       <c r="H284" s="8"/>
-      <c r="I284" s="8">
-        <v>2.3236724551727654</v>
-      </c>
-      <c r="J284" s="8">
-        <v>1175.6899580401266</v>
+      <c r="I284" s="21">
+        <v>1.9756414231539488</v>
+      </c>
+      <c r="J284" s="21">
+        <v>1161.0443603942024</v>
       </c>
       <c r="L284" s="9">
         <v>50.61</v>
@@ -25953,11 +25960,11 @@
         <v>36</v>
       </c>
       <c r="H285" s="8"/>
-      <c r="I285" s="8">
-        <v>0.84353171143843753</v>
-      </c>
-      <c r="J285" s="8">
-        <v>1177.3003366139633</v>
+      <c r="I285" s="21">
+        <v>0.46395118051307094</v>
+      </c>
+      <c r="J285" s="21">
+        <v>1162.4828426820393</v>
       </c>
       <c r="L285" s="9">
         <v>50.61</v>
@@ -26043,11 +26050,11 @@
         <v>36</v>
       </c>
       <c r="H286" s="8"/>
-      <c r="I286" s="8">
-        <v>0.17065132098567304</v>
-      </c>
-      <c r="J286" s="8">
-        <v>1169.5582470353925</v>
+      <c r="I286" s="21">
+        <v>-0.13398399931805827</v>
+      </c>
+      <c r="J286" s="21">
+        <v>1152.6064737317956</v>
       </c>
       <c r="L286" s="9">
         <v>50.61</v>
@@ -26133,11 +26140,11 @@
         <v>36</v>
       </c>
       <c r="H287" s="8"/>
-      <c r="I287" s="8">
-        <v>2.6221347098591394</v>
-      </c>
-      <c r="J287" s="8">
-        <v>1171.0683182928049</v>
+      <c r="I287" s="21">
+        <v>1.9954121607032214</v>
+      </c>
+      <c r="J287" s="21">
+        <v>1157.3014571219142</v>
       </c>
       <c r="L287" s="9">
         <v>50.61</v>
@@ -26223,11 +26230,11 @@
         <v>1162.5528464360409</v>
       </c>
       <c r="H288" s="8"/>
-      <c r="I288" s="8">
-        <v>2.7291376236206126</v>
-      </c>
-      <c r="J288" s="8">
-        <v>1170.0916944940268</v>
+      <c r="I288" s="21">
+        <v>2.1856621999383599</v>
+      </c>
+      <c r="J288" s="21">
+        <v>1155.3437483602479</v>
       </c>
       <c r="L288" s="9">
         <v>50.61</v>
@@ -26313,11 +26320,11 @@
         <v>1186.9829010123754</v>
       </c>
       <c r="H289" s="8"/>
-      <c r="I289" s="8">
-        <v>3.4474748306869287</v>
-      </c>
-      <c r="J289" s="8">
-        <v>1189.0169996517091</v>
+      <c r="I289" s="21">
+        <v>3.1886393408864748</v>
+      </c>
+      <c r="J289" s="21">
+        <v>1172.7084351178</v>
       </c>
       <c r="L289" s="9">
         <v>50.61</v>
@@ -26403,11 +26410,11 @@
         <v>36</v>
       </c>
       <c r="H290" s="8"/>
-      <c r="I290" s="8">
-        <v>1.9253116260917835</v>
-      </c>
-      <c r="J290" s="8">
-        <v>1176.7489789133788</v>
+      <c r="I290" s="21">
+        <v>1.586663105042124</v>
+      </c>
+      <c r="J290" s="21">
+        <v>1161.4986288742984</v>
       </c>
       <c r="L290" s="9">
         <v>50.61</v>
@@ -26493,11 +26500,11 @@
         <v>36</v>
       </c>
       <c r="H291" s="8"/>
-      <c r="I291" s="8">
-        <v>1.9194012138720034</v>
-      </c>
-      <c r="J291" s="8">
-        <v>1178.4529708739537</v>
+      <c r="I291" s="21">
+        <v>1.4891645417673764</v>
+      </c>
+      <c r="J291" s="21">
+        <v>1162.5235640564865</v>
       </c>
       <c r="L291" s="9">
         <v>50.61</v>
@@ -26583,11 +26590,11 @@
         <v>1168.9556071772031</v>
       </c>
       <c r="H292" s="8"/>
-      <c r="I292" s="8">
-        <v>2.1326810838354078</v>
-      </c>
-      <c r="J292" s="8">
-        <v>1178.1741570395652</v>
+      <c r="I292" s="21">
+        <v>1.5871288781793673</v>
+      </c>
+      <c r="J292" s="21">
+        <v>1159.2524492184509</v>
       </c>
       <c r="L292" s="9">
         <v>50.61</v>
@@ -26673,11 +26680,11 @@
         <v>1161.7475274370481</v>
       </c>
       <c r="H293" s="8"/>
-      <c r="I293" s="8">
-        <v>2.3283332155501597</v>
-      </c>
-      <c r="J293" s="8">
-        <v>1171.8660450574373</v>
+      <c r="I293" s="21">
+        <v>1.7060780710463987</v>
+      </c>
+      <c r="J293" s="21">
+        <v>1155.1572090378934</v>
       </c>
       <c r="L293" s="9">
         <v>50.61</v>
@@ -26763,11 +26770,11 @@
         <v>1169.8778195512023</v>
       </c>
       <c r="H294" s="8"/>
-      <c r="I294" s="8">
-        <v>2.7171100005426965</v>
-      </c>
-      <c r="J294" s="8">
-        <v>1171.8605649402389</v>
+      <c r="I294" s="21">
+        <v>2.0355379590315152</v>
+      </c>
+      <c r="J294" s="21">
+        <v>1155.3695502494613</v>
       </c>
       <c r="L294" s="9">
         <v>50.61</v>
@@ -26853,11 +26860,11 @@
         <v>1182.8469256486906</v>
       </c>
       <c r="H295" s="8"/>
-      <c r="I295" s="8">
-        <v>2.6766924952423707</v>
-      </c>
-      <c r="J295" s="8">
-        <v>1175.6225847676126</v>
+      <c r="I295" s="21">
+        <v>1.8923133336086124</v>
+      </c>
+      <c r="J295" s="21">
+        <v>1156.7754503370527</v>
       </c>
       <c r="L295" s="9">
         <v>50.61</v>
@@ -26943,11 +26950,11 @@
         <v>1170.4003143607083</v>
       </c>
       <c r="H296" s="8"/>
-      <c r="I296" s="8">
-        <v>2.5410104513038547</v>
-      </c>
-      <c r="J296" s="8">
-        <v>1181.41317578643</v>
+      <c r="I296" s="21">
+        <v>1.9879935019033788</v>
+      </c>
+      <c r="J296" s="21">
+        <v>1163.4550834803256</v>
       </c>
       <c r="L296" s="9">
         <v>50.61</v>
@@ -27033,11 +27040,11 @@
         <v>36</v>
       </c>
       <c r="H297" s="8"/>
-      <c r="I297" s="8">
-        <v>0.99927832077196754</v>
-      </c>
-      <c r="J297" s="8">
-        <v>1170.2778643053289</v>
+      <c r="I297" s="21">
+        <v>0.67757181094137664</v>
+      </c>
+      <c r="J297" s="21">
+        <v>1154.7203523239089</v>
       </c>
       <c r="L297" s="9">
         <v>50.61</v>
@@ -27123,11 +27130,11 @@
         <v>36</v>
       </c>
       <c r="H298" s="8"/>
-      <c r="I298" s="8">
-        <v>-0.23223529277873922</v>
-      </c>
-      <c r="J298" s="8">
-        <v>1169.521050374972</v>
+      <c r="I298" s="21">
+        <v>-0.62245582998728821</v>
+      </c>
+      <c r="J298" s="21">
+        <v>1149.9494371151695</v>
       </c>
       <c r="L298" s="9">
         <v>50.61</v>
@@ -27213,11 +27220,11 @@
         <v>36</v>
       </c>
       <c r="H299" s="8"/>
-      <c r="I299" s="8">
-        <v>1.2470813345881488</v>
-      </c>
-      <c r="J299" s="8">
-        <v>1168.3485122267166</v>
+      <c r="I299" s="21">
+        <v>0.73065513759369694</v>
+      </c>
+      <c r="J299" s="21">
+        <v>1151.006812742241</v>
       </c>
       <c r="L299" s="9">
         <v>50.61</v>
@@ -27303,11 +27310,11 @@
         <v>1163.0435276385665</v>
       </c>
       <c r="H300" s="8"/>
-      <c r="I300" s="8">
-        <v>2.427693941791226</v>
-      </c>
-      <c r="J300" s="8">
-        <v>1184.8561799916383</v>
+      <c r="I300" s="21">
+        <v>2.2351808011843843</v>
+      </c>
+      <c r="J300" s="21">
+        <v>1169.4721889998734</v>
       </c>
       <c r="L300" s="9">
         <v>50.61</v>
@@ -27393,11 +27400,11 @@
         <v>1177.3008658463618</v>
       </c>
       <c r="H301" s="8"/>
-      <c r="I301" s="8">
-        <v>3.1017029881468403</v>
-      </c>
-      <c r="J301" s="8">
-        <v>1185.9177790396338</v>
+      <c r="I301" s="21">
+        <v>2.7937931521913342</v>
+      </c>
+      <c r="J301" s="21">
+        <v>1170.1525084103423</v>
       </c>
       <c r="L301" s="9">
         <v>50.61</v>
@@ -27483,11 +27490,11 @@
         <v>36</v>
       </c>
       <c r="H302" s="8"/>
-      <c r="I302" s="8">
-        <v>2.1584141693539607</v>
-      </c>
-      <c r="J302" s="8">
-        <v>1178.1389948297181</v>
+      <c r="I302" s="21">
+        <v>1.5162502218101359</v>
+      </c>
+      <c r="J302" s="21">
+        <v>1159.6981432163168</v>
       </c>
       <c r="L302" s="9">
         <v>50.61</v>
@@ -27573,11 +27580,11 @@
         <v>1184.4119826342107</v>
       </c>
       <c r="H303" s="8"/>
-      <c r="I303" s="8">
-        <v>3.3596662350609705</v>
-      </c>
-      <c r="J303" s="8">
-        <v>1174.4774836534027</v>
+      <c r="I303" s="21">
+        <v>2.8895949938253942</v>
+      </c>
+      <c r="J303" s="21">
+        <v>1160.757095530967</v>
       </c>
       <c r="L303" s="9">
         <v>50.61</v>
@@ -27663,11 +27670,11 @@
         <v>36</v>
       </c>
       <c r="H304" s="8"/>
-      <c r="I304" s="8">
-        <v>3.3685594558632346</v>
-      </c>
-      <c r="J304" s="8">
-        <v>1207.4558268791191</v>
+      <c r="I304" s="21">
+        <v>3.64165784526352</v>
+      </c>
+      <c r="J304" s="21">
+        <v>1192.0063358987254</v>
       </c>
       <c r="L304" s="9">
         <v>50.61</v>
@@ -27753,11 +27760,11 @@
         <v>36</v>
       </c>
       <c r="H305" s="8"/>
-      <c r="I305" s="8">
-        <v>2.5904707198949097</v>
-      </c>
-      <c r="J305" s="8">
-        <v>1194.2506903162766</v>
+      <c r="I305" s="21">
+        <v>2.8561510538771984</v>
+      </c>
+      <c r="J305" s="21">
+        <v>1181.1577909887747</v>
       </c>
       <c r="L305" s="9">
         <v>50.61</v>
@@ -27843,11 +27850,11 @@
         <v>36</v>
       </c>
       <c r="H306" s="8"/>
-      <c r="I306" s="8">
-        <v>4.1781838328594283</v>
-      </c>
-      <c r="J306" s="8">
-        <v>1196.3494327091837</v>
+      <c r="I306" s="21">
+        <v>4.2976492778255597</v>
+      </c>
+      <c r="J306" s="21">
+        <v>1183.0499446922172</v>
       </c>
       <c r="L306" s="9">
         <v>50.61</v>
@@ -27933,11 +27940,11 @@
         <v>36</v>
       </c>
       <c r="H307" s="8"/>
-      <c r="I307" s="8">
-        <v>3.4491038456862064</v>
-      </c>
-      <c r="J307" s="8">
-        <v>1197.2697737012691</v>
+      <c r="I307" s="21">
+        <v>3.7068046156263996</v>
+      </c>
+      <c r="J307" s="21">
+        <v>1183.6455463345621</v>
       </c>
       <c r="L307" s="9">
         <v>50.61</v>
@@ -28023,11 +28030,11 @@
         <v>36</v>
       </c>
       <c r="H308" s="8"/>
-      <c r="I308" s="8">
-        <v>2.9845952661575197</v>
-      </c>
-      <c r="J308" s="8">
-        <v>1193.1380879329067</v>
+      <c r="I308" s="21">
+        <v>3.2982988128116979</v>
+      </c>
+      <c r="J308" s="21">
+        <v>1180.8138651212494</v>
       </c>
       <c r="L308" s="9">
         <v>50.61</v>
@@ -28113,11 +28120,11 @@
         <v>1166.6560032085563</v>
       </c>
       <c r="H309" s="8"/>
-      <c r="I309" s="8">
-        <v>3.1826226546053427</v>
-      </c>
-      <c r="J309" s="8">
-        <v>1186.1680842613787</v>
+      <c r="I309" s="21">
+        <v>3.3101489499136854</v>
+      </c>
+      <c r="J309" s="21">
+        <v>1174.3022121838494</v>
       </c>
       <c r="L309" s="9">
         <v>50.61</v>
@@ -28203,11 +28210,11 @@
         <v>36</v>
       </c>
       <c r="H310" s="8"/>
-      <c r="I310" s="8">
-        <v>2.3063579362599427</v>
-      </c>
-      <c r="J310" s="8">
-        <v>1181.4928248966546</v>
+      <c r="I310" s="21">
+        <v>2.4990349194849344</v>
+      </c>
+      <c r="J310" s="21">
+        <v>1167.5672694025761</v>
       </c>
       <c r="L310" s="9">
         <v>50.61</v>
@@ -28293,11 +28300,11 @@
         <v>36</v>
       </c>
       <c r="H311" s="8"/>
-      <c r="I311" s="8">
-        <v>3.0224564783487189</v>
-      </c>
-      <c r="J311" s="8">
-        <v>1195.683755030725</v>
+      <c r="I311" s="21">
+        <v>3.2384542430684107</v>
+      </c>
+      <c r="J311" s="21">
+        <v>1181.7535030582435</v>
       </c>
       <c r="L311" s="9">
         <v>50.61</v>
@@ -28383,11 +28390,11 @@
         <v>1174.9091142587558</v>
       </c>
       <c r="H312" s="8"/>
-      <c r="I312" s="8">
-        <v>4.127468212842242</v>
-      </c>
-      <c r="J312" s="8">
-        <v>1200.4536588457681</v>
+      <c r="I312" s="21">
+        <v>4.4123850596886598</v>
+      </c>
+      <c r="J312" s="21">
+        <v>1190.5916181795455</v>
       </c>
       <c r="L312" s="9">
         <v>50.61</v>
@@ -28473,11 +28480,11 @@
         <v>1157.2135333717411</v>
       </c>
       <c r="H313" s="8"/>
-      <c r="I313" s="8">
-        <v>3.0394824104642417</v>
-      </c>
-      <c r="J313" s="8">
-        <v>1196.994235104142</v>
+      <c r="I313" s="21">
+        <v>3.4274674569348988</v>
+      </c>
+      <c r="J313" s="21">
+        <v>1186.5433247462443</v>
       </c>
       <c r="L313" s="9">
         <v>50.61</v>
@@ -28563,11 +28570,11 @@
         <v>1162.3617040234985</v>
       </c>
       <c r="H314" s="8"/>
-      <c r="I314" s="8">
-        <v>2.8665120558052095</v>
-      </c>
-      <c r="J314" s="8">
-        <v>1188.2658750848482</v>
+      <c r="I314" s="21">
+        <v>3.0196557281899707</v>
+      </c>
+      <c r="J314" s="21">
+        <v>1176.8650548132816</v>
       </c>
       <c r="L314" s="9">
         <v>50.61</v>
@@ -28653,11 +28660,11 @@
         <v>36</v>
       </c>
       <c r="H315" s="8"/>
-      <c r="I315" s="8">
-        <v>3.3588029377215953</v>
-      </c>
-      <c r="J315" s="8">
-        <v>1187.7429766990099</v>
+      <c r="I315" s="21">
+        <v>3.5232459018234366</v>
+      </c>
+      <c r="J315" s="21">
+        <v>1179.8314968729619</v>
       </c>
       <c r="L315" s="9">
         <v>50.61</v>
@@ -28743,11 +28750,11 @@
         <v>36</v>
       </c>
       <c r="H316" s="8"/>
-      <c r="I316" s="8">
-        <v>5.7084440469775117</v>
-      </c>
-      <c r="J316" s="8">
-        <v>1200.1844799558839</v>
+      <c r="I316" s="21">
+        <v>6.1221801441513293</v>
+      </c>
+      <c r="J316" s="21">
+        <v>1189.6497273583934</v>
       </c>
       <c r="L316" s="9">
         <v>50.61</v>
@@ -28833,11 +28840,11 @@
         <v>36</v>
       </c>
       <c r="H317" s="8"/>
-      <c r="I317" s="8">
-        <v>3.8456434631383409</v>
-      </c>
-      <c r="J317" s="8">
-        <v>1185.5021603298073</v>
+      <c r="I317" s="21">
+        <v>3.8240277520228716</v>
+      </c>
+      <c r="J317" s="21">
+        <v>1173.3625111116305</v>
       </c>
       <c r="L317" s="9">
         <v>50.61</v>
@@ -28923,11 +28930,11 @@
         <v>36</v>
       </c>
       <c r="H318" s="8"/>
-      <c r="I318" s="8">
-        <v>3.4928844932552039</v>
-      </c>
-      <c r="J318" s="8">
-        <v>1176.7225877740836</v>
+      <c r="I318" s="21">
+        <v>3.6895628095059507</v>
+      </c>
+      <c r="J318" s="21">
+        <v>1165.818796639528</v>
       </c>
       <c r="L318" s="9">
         <v>50.61</v>
@@ -29013,11 +29020,11 @@
         <v>36</v>
       </c>
       <c r="H319" s="8"/>
-      <c r="I319" s="8">
-        <v>0.41647169697072073</v>
-      </c>
-      <c r="J319" s="8">
-        <v>1155.0815102659935</v>
+      <c r="I319" s="21">
+        <v>0.70159747622205515</v>
+      </c>
+      <c r="J319" s="21">
+        <v>1142.1513461086399</v>
       </c>
       <c r="L319" s="9">
         <v>50.046170135030856</v>
@@ -29103,11 +29110,11 @@
         <v>1129.3872325524421</v>
       </c>
       <c r="H320" s="8"/>
-      <c r="I320" s="8">
-        <v>0.21716281795928438</v>
-      </c>
-      <c r="J320" s="8">
-        <v>1160.9481958567844</v>
+      <c r="I320" s="21">
+        <v>0.50134044981336245</v>
+      </c>
+      <c r="J320" s="21">
+        <v>1144.8871073132209</v>
       </c>
       <c r="L320" s="9">
         <v>50.046170135030856</v>
@@ -29193,11 +29200,11 @@
         <v>36</v>
       </c>
       <c r="H321" s="8"/>
-      <c r="I321" s="8">
-        <v>-0.72059164970025336</v>
-      </c>
-      <c r="J321" s="8">
-        <v>1150.8481372251699</v>
+      <c r="I321" s="21">
+        <v>-0.54926424695993958</v>
+      </c>
+      <c r="J321" s="21">
+        <v>1133.7764729650762</v>
       </c>
       <c r="L321" s="9">
         <v>50.046170135030899</v>
@@ -29283,11 +29290,11 @@
         <v>1155.380867082195</v>
       </c>
       <c r="H322" s="8"/>
-      <c r="I322" s="8">
-        <v>1.8459766505185904</v>
-      </c>
-      <c r="J322" s="8">
-        <v>1160.4893363570909</v>
+      <c r="I322" s="21">
+        <v>2.2737921822938887</v>
+      </c>
+      <c r="J322" s="21">
+        <v>1147.4087236506912</v>
       </c>
       <c r="L322" s="9">
         <v>50.046170135030899</v>
@@ -29373,11 +29380,11 @@
         <v>1129.6526377764408</v>
       </c>
       <c r="H323" s="8"/>
-      <c r="I323" s="8">
-        <v>-0.63669694699539647</v>
-      </c>
-      <c r="J323" s="8">
-        <v>1152.0904901778335</v>
+      <c r="I323" s="21">
+        <v>-0.43324419538683756</v>
+      </c>
+      <c r="J323" s="21">
+        <v>1134.3904740596743</v>
       </c>
       <c r="L323" s="9">
         <v>50.046170135030899</v>
@@ -29463,11 +29470,11 @@
         <v>1146.7567025119688</v>
       </c>
       <c r="H324" s="8"/>
-      <c r="I324" s="8">
-        <v>0.16619890256948722</v>
-      </c>
-      <c r="J324" s="8">
-        <v>1148.3661535013762</v>
+      <c r="I324" s="21">
+        <v>0.23364804087365343</v>
+      </c>
+      <c r="J324" s="21">
+        <v>1133.7260805998737</v>
       </c>
       <c r="L324" s="9">
         <v>50.046170135030899</v>
@@ -29553,11 +29560,11 @@
         <v>1140.2404461913316</v>
       </c>
       <c r="H325" s="8"/>
-      <c r="I325" s="8">
-        <v>0.83890034819427584</v>
-      </c>
-      <c r="J325" s="8">
-        <v>1156.3768356378148</v>
+      <c r="I325" s="21">
+        <v>1.1495529802011006</v>
+      </c>
+      <c r="J325" s="21">
+        <v>1144.3968469310244</v>
       </c>
       <c r="L325" s="9">
         <v>50.046170135030899</v>
@@ -29643,11 +29650,11 @@
         <v>1143.3157848197866</v>
       </c>
       <c r="H326" s="8"/>
-      <c r="I326" s="8">
-        <v>1.9363937597519012</v>
-      </c>
-      <c r="J326" s="8">
-        <v>1160.2922579587751</v>
+      <c r="I326" s="21">
+        <v>2.4014611642586274</v>
+      </c>
+      <c r="J326" s="21">
+        <v>1149.4477091984684</v>
       </c>
       <c r="L326" s="9">
         <v>50.046170135030899</v>
@@ -29733,11 +29740,11 @@
         <v>36</v>
       </c>
       <c r="H327" s="8"/>
-      <c r="I327" s="8">
-        <v>-0.43154976519092259</v>
-      </c>
-      <c r="J327" s="8">
-        <v>1147.9587073969305</v>
+      <c r="I327" s="21">
+        <v>0.24831453199989184</v>
+      </c>
+      <c r="J327" s="21">
+        <v>1136.6936658124559</v>
       </c>
       <c r="L327" s="9">
         <v>50.046170135030899</v>
@@ -29823,11 +29830,11 @@
         <v>1129.8000507180395</v>
       </c>
       <c r="H328" s="8"/>
-      <c r="I328" s="8">
-        <v>0.40122390846664757</v>
-      </c>
-      <c r="J328" s="8">
-        <v>1148.3482816399778</v>
+      <c r="I328" s="21">
+        <v>0.74299961936866055</v>
+      </c>
+      <c r="J328" s="21">
+        <v>1136.4922543262928</v>
       </c>
       <c r="L328" s="9">
         <v>50.046170135030899</v>
@@ -29913,11 +29920,11 @@
         <v>1118.0316642954335</v>
       </c>
       <c r="H329" s="8"/>
-      <c r="I329" s="8">
-        <v>-0.37539160903298097</v>
-      </c>
-      <c r="J329" s="8">
-        <v>1148.286572834761</v>
+      <c r="I329" s="21">
+        <v>-0.13807204885139157</v>
+      </c>
+      <c r="J329" s="21">
+        <v>1134.5948743002868</v>
       </c>
       <c r="L329" s="9">
         <v>50.046170135030899</v>
@@ -30003,11 +30010,11 @@
         <v>1155.3979368357832</v>
       </c>
       <c r="H330" s="8"/>
-      <c r="I330" s="8">
-        <v>1.3379391895297488</v>
-      </c>
-      <c r="J330" s="8">
-        <v>1163.1364035411711</v>
+      <c r="I330" s="21">
+        <v>1.5724260409789359</v>
+      </c>
+      <c r="J330" s="21">
+        <v>1149.666103322123</v>
       </c>
       <c r="L330" s="9">
         <v>50.046170135030899</v>
@@ -30093,11 +30100,11 @@
         <v>1127.5520466642388</v>
       </c>
       <c r="H331" s="8"/>
-      <c r="I331" s="8">
-        <v>0.4795090352352851</v>
-      </c>
-      <c r="J331" s="8">
-        <v>1155.6481830213997</v>
+      <c r="I331" s="21">
+        <v>0.65195891301049969</v>
+      </c>
+      <c r="J331" s="21">
+        <v>1141.2736778580886</v>
       </c>
       <c r="L331" s="9">
         <v>50.046170135030899</v>
@@ -30183,11 +30190,11 @@
         <v>1136.5770822127961</v>
       </c>
       <c r="H332" s="8"/>
-      <c r="I332" s="8">
-        <v>0.52351970613404575</v>
-      </c>
-      <c r="J332" s="8">
-        <v>1154.5963081213015</v>
+      <c r="I332" s="21">
+        <v>0.80270227981400666</v>
+      </c>
+      <c r="J332" s="21">
+        <v>1141.0112827901994</v>
       </c>
       <c r="L332" s="9">
         <v>50.046170135030899</v>
@@ -30273,11 +30280,11 @@
         <v>1137.8466236004629</v>
       </c>
       <c r="H333" s="8"/>
-      <c r="I333" s="8">
-        <v>1.5341020069648685</v>
-      </c>
-      <c r="J333" s="8">
-        <v>1160.8753603346599</v>
+      <c r="I333" s="21">
+        <v>1.7930379654944026</v>
+      </c>
+      <c r="J333" s="21">
+        <v>1147.1080942126475</v>
       </c>
       <c r="L333" s="9">
         <v>50.046170135030899</v>
@@ -30363,11 +30370,11 @@
         <v>1130.3353744185574</v>
       </c>
       <c r="H334" s="8"/>
-      <c r="I334" s="8">
-        <v>8.5133202198491631E-2</v>
-      </c>
-      <c r="J334" s="8">
-        <v>1157.103909252427</v>
+      <c r="I334" s="21">
+        <v>0.28641940201821825</v>
+      </c>
+      <c r="J334" s="21">
+        <v>1141.3810027693139</v>
       </c>
       <c r="L334" s="9">
         <v>50.046170135030899</v>
@@ -30453,11 +30460,11 @@
         <v>1158.0746057351921</v>
       </c>
       <c r="H335" s="8"/>
-      <c r="I335" s="8">
-        <v>1.0828155500082204</v>
-      </c>
-      <c r="J335" s="8">
-        <v>1163.5692657441898</v>
+      <c r="I335" s="21">
+        <v>1.188459256490269</v>
+      </c>
+      <c r="J335" s="21">
+        <v>1149.6914528925643</v>
       </c>
       <c r="L335" s="9">
         <v>50.002161028746002</v>
@@ -30543,11 +30550,11 @@
         <v>36</v>
       </c>
       <c r="H336" s="8"/>
-      <c r="I336" s="8">
-        <v>-0.27696272779590103</v>
-      </c>
-      <c r="J336" s="8">
-        <v>1161.5617229659588</v>
+      <c r="I336" s="21">
+        <v>-0.48661210969884294</v>
+      </c>
+      <c r="J336" s="21">
+        <v>1141.0884660488632</v>
       </c>
       <c r="L336" s="9">
         <v>50.002161028746002</v>
@@ -30633,11 +30640,11 @@
         <v>1163.2477157728199</v>
       </c>
       <c r="H337" s="8"/>
-      <c r="I337" s="8">
-        <v>2.2067683799740436</v>
-      </c>
-      <c r="J337" s="8">
-        <v>1171.0951821134186</v>
+      <c r="I337" s="21">
+        <v>2.3408154478770449</v>
+      </c>
+      <c r="J337" s="21">
+        <v>1157.6383765170915</v>
       </c>
       <c r="L337" s="9">
         <v>50.002161028746002</v>
@@ -30723,11 +30730,11 @@
         <v>1153.1969186874912</v>
       </c>
       <c r="H338" s="8"/>
-      <c r="I338" s="8">
-        <v>1.270433330043705</v>
-      </c>
-      <c r="J338" s="8">
-        <v>1151.539058879205</v>
+      <c r="I338" s="21">
+        <v>1.2096031311440889</v>
+      </c>
+      <c r="J338" s="21">
+        <v>1138.7535786766016</v>
       </c>
       <c r="L338" s="9">
         <v>50.002161028746002</v>
@@ -30813,11 +30820,11 @@
         <v>1149.0028047591622</v>
       </c>
       <c r="H339" s="8"/>
-      <c r="I339" s="8">
-        <v>0.90834697589615132</v>
-      </c>
-      <c r="J339" s="8">
-        <v>1154.3303713082555</v>
+      <c r="I339" s="21">
+        <v>1.0278203810822184</v>
+      </c>
+      <c r="J339" s="21">
+        <v>1142.0020755658491</v>
       </c>
       <c r="L339" s="9">
         <v>50.002161028746002</v>
@@ -30903,11 +30910,11 @@
         <v>36</v>
       </c>
       <c r="H340" s="8"/>
-      <c r="I340" s="8">
-        <v>0.72020920831751312</v>
-      </c>
-      <c r="J340" s="8">
-        <v>1167.2023594891757</v>
+      <c r="I340" s="21">
+        <v>0.71823673810707334</v>
+      </c>
+      <c r="J340" s="21">
+        <v>1150.7249094889396</v>
       </c>
       <c r="L340" s="9">
         <v>50.002161028746002</v>
@@ -30993,11 +31000,11 @@
         <v>1163.4544570112157</v>
       </c>
       <c r="H341" s="8"/>
-      <c r="I341" s="8">
-        <v>1.1034858582151266</v>
-      </c>
-      <c r="J341" s="8">
-        <v>1152.2301829838621</v>
+      <c r="I341" s="21">
+        <v>0.91013838360073862</v>
+      </c>
+      <c r="J341" s="21">
+        <v>1138.2575241402899</v>
       </c>
       <c r="L341" s="9">
         <v>50.002161028746002</v>
@@ -31083,11 +31090,11 @@
         <v>1152.8018499465388</v>
       </c>
       <c r="H342" s="8"/>
-      <c r="I342" s="8">
-        <v>1.5929120493157072</v>
-      </c>
-      <c r="J342" s="8">
-        <v>1171.0384085649916</v>
+      <c r="I342" s="21">
+        <v>1.6243636224546663</v>
+      </c>
+      <c r="J342" s="21">
+        <v>1157.012096663251</v>
       </c>
       <c r="L342" s="9">
         <v>50.002161028746002</v>
@@ -31173,11 +31180,11 @@
         <v>1150.9137883673075</v>
       </c>
       <c r="H343" s="8"/>
-      <c r="I343" s="8">
-        <v>0.58108093169414587</v>
-      </c>
-      <c r="J343" s="8">
-        <v>1151.625195350882</v>
+      <c r="I343" s="21">
+        <v>0.57311244710385623</v>
+      </c>
+      <c r="J343" s="21">
+        <v>1137.9197763987308</v>
       </c>
       <c r="L343" s="9">
         <v>50.002161028746002</v>
@@ -31263,11 +31270,11 @@
         <v>1164.5312942911241</v>
       </c>
       <c r="H344" s="8"/>
-      <c r="I344" s="8">
-        <v>0.91621124730317405</v>
-      </c>
-      <c r="J344" s="8">
-        <v>1153.9562197499758</v>
+      <c r="I344" s="21">
+        <v>0.54850190915626484</v>
+      </c>
+      <c r="J344" s="21">
+        <v>1139.2210239749697</v>
       </c>
       <c r="L344" s="9">
         <v>50.002161028746002</v>
@@ -31353,11 +31360,11 @@
         <v>1161.8836697240672</v>
       </c>
       <c r="H345" s="8"/>
-      <c r="I345" s="8">
-        <v>0.75988862615168884</v>
-      </c>
-      <c r="J345" s="8">
-        <v>1164.1327986479187</v>
+      <c r="I345" s="21">
+        <v>0.50115255202894105</v>
+      </c>
+      <c r="J345" s="21">
+        <v>1146.8541392797185</v>
       </c>
       <c r="L345" s="9">
         <v>50.002161028746002</v>
@@ -31443,11 +31450,11 @@
         <v>1150.169895169759</v>
       </c>
       <c r="H346" s="8"/>
-      <c r="I346" s="8">
-        <v>1.1565450788972704</v>
-      </c>
-      <c r="J346" s="8">
-        <v>1162.7870061052083</v>
+      <c r="I346" s="21">
+        <v>1.1793489994185968</v>
+      </c>
+      <c r="J346" s="21">
+        <v>1148.2679850750208</v>
       </c>
       <c r="L346" s="9">
         <v>50.002161028746002</v>
@@ -31533,11 +31540,11 @@
         <v>1155.3460447615544</v>
       </c>
       <c r="H347" s="8"/>
-      <c r="I347" s="8">
-        <v>1.5818277057149253</v>
-      </c>
-      <c r="J347" s="8">
-        <v>1169.879744114746</v>
+      <c r="I347" s="21">
+        <v>1.4725096148256966</v>
+      </c>
+      <c r="J347" s="21">
+        <v>1154.8307998373959</v>
       </c>
       <c r="L347" s="9">
         <v>50.002161028746002</v>
@@ -31623,11 +31630,11 @@
         <v>1157.1037200429296</v>
       </c>
       <c r="H348" s="8"/>
-      <c r="I348" s="8">
-        <v>1.6605708873888538</v>
-      </c>
-      <c r="J348" s="8">
-        <v>1161.00758677865</v>
+      <c r="I348" s="21">
+        <v>1.6955371648278899</v>
+      </c>
+      <c r="J348" s="21">
+        <v>1146.7781897996697</v>
       </c>
       <c r="L348" s="9">
         <v>50.002161028746002</v>
@@ -31713,11 +31720,11 @@
         <v>1146.2504148494322</v>
       </c>
       <c r="H349" s="8"/>
-      <c r="I349" s="8">
-        <v>1.3030653943301971</v>
-      </c>
-      <c r="J349" s="8">
-        <v>1165.5539424779811</v>
+      <c r="I349" s="21">
+        <v>1.2845432602038009</v>
+      </c>
+      <c r="J349" s="21">
+        <v>1153.212155237256</v>
       </c>
       <c r="L349" s="9">
         <v>50.002161028746002</v>
@@ -31803,11 +31810,11 @@
         <v>1147.4066938025367</v>
       </c>
       <c r="H350" s="8"/>
-      <c r="I350" s="8">
-        <v>1.4813189485241374</v>
-      </c>
-      <c r="J350" s="8">
-        <v>1152.4018175501735</v>
+      <c r="I350" s="21">
+        <v>1.4554623620694542</v>
+      </c>
+      <c r="J350" s="21">
+        <v>1139.8482015196607</v>
       </c>
       <c r="L350" s="9">
         <v>50.002161028746002</v>
@@ -31893,11 +31900,11 @@
         <v>1148.7651158816229</v>
       </c>
       <c r="H351" s="8"/>
-      <c r="I351" s="8">
-        <v>0.97693489673122968</v>
-      </c>
-      <c r="J351" s="8">
-        <v>1150.2280683963415</v>
+      <c r="I351" s="21">
+        <v>0.99884602375184173</v>
+      </c>
+      <c r="J351" s="21">
+        <v>1139.5647580899683</v>
       </c>
       <c r="L351" s="9">
         <v>50.002161028746002</v>
@@ -31983,11 +31990,11 @@
         <v>36</v>
       </c>
       <c r="H352" s="8"/>
-      <c r="I352" s="8">
-        <v>-0.31477257739513931</v>
-      </c>
-      <c r="J352" s="8">
-        <v>1159.8055139408843</v>
+      <c r="I352" s="21">
+        <v>-0.47699413985361261</v>
+      </c>
+      <c r="J352" s="21">
+        <v>1141.1697175122911</v>
       </c>
       <c r="L352" s="9">
         <v>50.002161028746002</v>
@@ -32073,11 +32080,11 @@
         <v>1163.8607238538179</v>
       </c>
       <c r="H353" s="8"/>
-      <c r="I353" s="8">
-        <v>2.0712660389074529</v>
-      </c>
-      <c r="J353" s="8">
-        <v>1161.8281288594587</v>
+      <c r="I353" s="21">
+        <v>2.0840198083695647</v>
+      </c>
+      <c r="J353" s="21">
+        <v>1150.8110997877088</v>
       </c>
       <c r="L353" s="9">
         <v>50.002161028746002</v>
@@ -32163,11 +32170,11 @@
         <v>1147.4801702911509</v>
       </c>
       <c r="H354" s="8"/>
-      <c r="I354" s="8">
-        <v>0.57028785203547727</v>
-      </c>
-      <c r="J354" s="8">
-        <v>1166.2857664945604</v>
+      <c r="I354" s="21">
+        <v>0.56540463527398188</v>
+      </c>
+      <c r="J354" s="21">
+        <v>1147.8216669620892</v>
       </c>
       <c r="L354" s="9">
         <v>50.002161028746002</v>
@@ -32253,11 +32260,11 @@
         <v>1150.4362694636907</v>
       </c>
       <c r="H355" s="8"/>
-      <c r="I355" s="8">
-        <v>1.657349729421064</v>
-      </c>
-      <c r="J355" s="8">
-        <v>1158.1443849070215</v>
+      <c r="I355" s="21">
+        <v>1.3307505280482026</v>
+      </c>
+      <c r="J355" s="21">
+        <v>1144.9233224485608</v>
       </c>
       <c r="L355" s="9">
         <v>50.002161028746002</v>
@@ -32343,11 +32350,11 @@
         <v>1162.0136680150445</v>
       </c>
       <c r="H356" s="8"/>
-      <c r="I356" s="8">
-        <v>1.2128892554783626</v>
-      </c>
-      <c r="J356" s="8">
-        <v>1153.5910830406494</v>
+      <c r="I356" s="21">
+        <v>1.2326744010486195</v>
+      </c>
+      <c r="J356" s="21">
+        <v>1140.749051678524</v>
       </c>
       <c r="L356" s="9">
         <v>50.002161028746002</v>
@@ -32433,11 +32440,11 @@
         <v>36</v>
       </c>
       <c r="H357" s="8"/>
-      <c r="I357" s="8">
-        <v>-9.2510238188918237E-2</v>
-      </c>
-      <c r="J357" s="8">
-        <v>1169.8169555682327</v>
+      <c r="I357" s="21">
+        <v>-5.6747023905064253E-2</v>
+      </c>
+      <c r="J357" s="21">
+        <v>1151.7381273076921</v>
       </c>
       <c r="L357" s="9">
         <v>50.002161028746002</v>
@@ -32523,11 +32530,11 @@
         <v>1150.1578394705675</v>
       </c>
       <c r="H358" s="8"/>
-      <c r="I358" s="8">
-        <v>0.84745478845137612</v>
-      </c>
-      <c r="J358" s="8">
-        <v>1161.7821894145789</v>
+      <c r="I358" s="21">
+        <v>0.73616005666974615</v>
+      </c>
+      <c r="J358" s="21">
+        <v>1146.1558410006442</v>
       </c>
       <c r="L358" s="9">
         <v>50.002161028746002</v>
@@ -32613,11 +32620,11 @@
         <v>1144.3061087349993</v>
       </c>
       <c r="H359" s="8"/>
-      <c r="I359" s="8">
-        <v>0.52357062788785314</v>
-      </c>
-      <c r="J359" s="8">
-        <v>1146.0965804271559</v>
+      <c r="I359" s="21">
+        <v>0.16425680735934023</v>
+      </c>
+      <c r="J359" s="21">
+        <v>1131.7946028847618</v>
       </c>
       <c r="L359" s="9">
         <v>50.002161028746002</v>
@@ -32703,11 +32710,11 @@
         <v>1156.6663421189605</v>
       </c>
       <c r="H360" s="8"/>
-      <c r="I360" s="8">
-        <v>1.0154348197101939</v>
-      </c>
-      <c r="J360" s="8">
-        <v>1153.7120878631231</v>
+      <c r="I360" s="21">
+        <v>0.79167566710247073</v>
+      </c>
+      <c r="J360" s="21">
+        <v>1140.2460211557482</v>
       </c>
       <c r="L360" s="9">
         <v>50.002161028746002</v>
@@ -32793,11 +32800,11 @@
         <v>1152.0847995945915</v>
       </c>
       <c r="H361" s="8"/>
-      <c r="I361" s="8">
-        <v>1.0158851011422065</v>
-      </c>
-      <c r="J361" s="8">
-        <v>1162.7649440805681</v>
+      <c r="I361" s="21">
+        <v>1.1621482904301246</v>
+      </c>
+      <c r="J361" s="21">
+        <v>1150.3915924714815</v>
       </c>
       <c r="L361" s="9">
         <v>50.002161028746002</v>
@@ -32883,11 +32890,11 @@
         <v>1147.3923959363356</v>
       </c>
       <c r="H362" s="8"/>
-      <c r="I362" s="8">
-        <v>1.1299232365083434</v>
-      </c>
-      <c r="J362" s="8">
-        <v>1155.5864128311173</v>
+      <c r="I362" s="21">
+        <v>1.0322699664124642</v>
+      </c>
+      <c r="J362" s="21">
+        <v>1143.9096213881617</v>
       </c>
       <c r="L362" s="9">
         <v>50.002161028746002</v>
@@ -32973,11 +32980,11 @@
         <v>1138.270527364492</v>
       </c>
       <c r="H363" s="8"/>
-      <c r="I363" s="8">
-        <v>-0.29848911225570873</v>
-      </c>
-      <c r="J363" s="8">
-        <v>1151.0697883834464</v>
+      <c r="I363" s="21">
+        <v>-0.28858856517630826</v>
+      </c>
+      <c r="J363" s="21">
+        <v>1136.8764390611709</v>
       </c>
       <c r="L363" s="9">
         <v>50.002161028746002</v>
@@ -33063,11 +33070,11 @@
         <v>1147.6297860937007</v>
       </c>
       <c r="H364" s="8"/>
-      <c r="I364" s="8">
-        <v>1.3230113269439272</v>
-      </c>
-      <c r="J364" s="8">
-        <v>1168.2242210199161</v>
+      <c r="I364" s="21">
+        <v>1.3887576806252078</v>
+      </c>
+      <c r="J364" s="21">
+        <v>1153.884485075368</v>
       </c>
       <c r="L364" s="9">
         <v>50.002161028746002</v>
@@ -33153,11 +33160,11 @@
         <v>1160.3334849285156</v>
       </c>
       <c r="H365" s="8"/>
-      <c r="I365" s="8">
-        <v>1.015481535302186</v>
-      </c>
-      <c r="J365" s="8">
-        <v>1144.600390892869</v>
+      <c r="I365" s="21">
+        <v>0.89094865064048889</v>
+      </c>
+      <c r="J365" s="21">
+        <v>1133.8132860884682</v>
       </c>
       <c r="L365" s="9">
         <v>50.002161028746002</v>
@@ -33224,6 +33231,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A7:AG365" xr:uid="{291DC5EB-B9B6-4AED-BC33-D9FCED12F61B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
